--- a/data/nzd0114/nzd0114.xlsx
+++ b/data/nzd0114/nzd0114.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN197"/>
+  <dimension ref="A1:AN199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22115,8 +22115,12 @@
       <c r="H197" t="n">
         <v>288.9233333333333</v>
       </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="J197" t="n">
+        <v>303.61</v>
+      </c>
       <c r="K197" t="n">
         <v>302.4868421052632</v>
       </c>
@@ -22189,7 +22193,9 @@
       <c r="AH197" t="n">
         <v>295.49</v>
       </c>
-      <c r="AI197" t="inlineStr"/>
+      <c r="AI197" t="n">
+        <v>278.91</v>
+      </c>
       <c r="AJ197" t="inlineStr"/>
       <c r="AK197" t="n">
         <v>239.37</v>
@@ -22203,6 +22209,238 @@
       <c r="AN197" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>300.2577777777778</v>
+      </c>
+      <c r="C198" t="n">
+        <v>291.91</v>
+      </c>
+      <c r="D198" t="n">
+        <v>295.46</v>
+      </c>
+      <c r="E198" t="n">
+        <v>299.8477777777778</v>
+      </c>
+      <c r="F198" t="n">
+        <v>306.8677777777777</v>
+      </c>
+      <c r="G198" t="n">
+        <v>312.6477777777778</v>
+      </c>
+      <c r="H198" t="n">
+        <v>292.1766666666667</v>
+      </c>
+      <c r="I198" t="n">
+        <v>299.34</v>
+      </c>
+      <c r="J198" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="K198" t="n">
+        <v>306.2410526315789</v>
+      </c>
+      <c r="L198" t="n">
+        <v>320.68</v>
+      </c>
+      <c r="M198" t="n">
+        <v>318.56</v>
+      </c>
+      <c r="N198" t="n">
+        <v>344.9357142857143</v>
+      </c>
+      <c r="O198" t="n">
+        <v>347.49</v>
+      </c>
+      <c r="P198" t="n">
+        <v>331.2757142857143</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>328.7</v>
+      </c>
+      <c r="R198" t="n">
+        <v>326.59</v>
+      </c>
+      <c r="S198" t="n">
+        <v>332.9877777777777</v>
+      </c>
+      <c r="T198" t="n">
+        <v>330.9</v>
+      </c>
+      <c r="U198" t="n">
+        <v>332.7</v>
+      </c>
+      <c r="V198" t="n">
+        <v>353.9177777777778</v>
+      </c>
+      <c r="W198" t="n">
+        <v>362.56</v>
+      </c>
+      <c r="X198" t="n">
+        <v>365.6</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>375.4377777777778</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>373.0977777777778</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>373.71</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>369.19</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>365.23</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>363.4677777777778</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>354.41</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>350.0477777777777</v>
+      </c>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
+      <c r="AJ198" t="n">
+        <v>234.3057142857143</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>207.45</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>303.7177777777778</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>324.8266666666667</v>
+      </c>
+      <c r="AN198" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>298.6166666666667</v>
+      </c>
+      <c r="C199" t="n">
+        <v>296.45</v>
+      </c>
+      <c r="D199" t="n">
+        <v>292.73</v>
+      </c>
+      <c r="E199" t="n">
+        <v>298.3566666666667</v>
+      </c>
+      <c r="F199" t="n">
+        <v>301.2266666666667</v>
+      </c>
+      <c r="G199" t="n">
+        <v>305.8766666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>297.44</v>
+      </c>
+      <c r="I199" t="n">
+        <v>297.26</v>
+      </c>
+      <c r="J199" t="n">
+        <v>295.9709090909091</v>
+      </c>
+      <c r="K199" t="n">
+        <v>296.0105263157895</v>
+      </c>
+      <c r="L199" t="n">
+        <v>308.17</v>
+      </c>
+      <c r="M199" t="n">
+        <v>329.94</v>
+      </c>
+      <c r="N199" t="n">
+        <v>334.8328571428572</v>
+      </c>
+      <c r="O199" t="n">
+        <v>337.17</v>
+      </c>
+      <c r="P199" t="n">
+        <v>343.1728571428571</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>331.09</v>
+      </c>
+      <c r="R199" t="n">
+        <v>323.17</v>
+      </c>
+      <c r="S199" t="n">
+        <v>324.8466666666667</v>
+      </c>
+      <c r="T199" t="n">
+        <v>333.61</v>
+      </c>
+      <c r="U199" t="n">
+        <v>353.63</v>
+      </c>
+      <c r="V199" t="n">
+        <v>368.2966666666667</v>
+      </c>
+      <c r="W199" t="n">
+        <v>385.81</v>
+      </c>
+      <c r="X199" t="n">
+        <v>393.65</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>412.5466666666667</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>402.3966666666667</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>392.620909090909</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>381.94</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>383.11</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>377.7266666666667</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>367.18</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>369.2366666666667</v>
+      </c>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
+      <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22217,7 +22455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24225,6 +24463,26 @@
       </c>
       <c r="B200" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -24393,28 +24651,28 @@
         <v>0.0537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2578227029068361</v>
+        <v>0.2886276576883347</v>
       </c>
       <c r="J2" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K2" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01728863190685159</v>
+        <v>0.02184296360451088</v>
       </c>
       <c r="M2" t="n">
-        <v>11.21525822659023</v>
+        <v>11.23910567036373</v>
       </c>
       <c r="N2" t="n">
-        <v>192.3755887505923</v>
+        <v>192.105162208241</v>
       </c>
       <c r="O2" t="n">
-        <v>13.86995273065457</v>
+        <v>13.86020065541048</v>
       </c>
       <c r="P2" t="n">
-        <v>279.6743121465475</v>
+        <v>279.360968487571</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24470,28 +24728,28 @@
         <v>0.0433</v>
       </c>
       <c r="I3" t="n">
-        <v>0.457455154688222</v>
+        <v>0.478476990156453</v>
       </c>
       <c r="J3" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K3" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04119099710253227</v>
+        <v>0.04574478556207362</v>
       </c>
       <c r="M3" t="n">
-        <v>13.03038726411324</v>
+        <v>12.96836577699542</v>
       </c>
       <c r="N3" t="n">
-        <v>244.1845456178216</v>
+        <v>242.2483065949771</v>
       </c>
       <c r="O3" t="n">
-        <v>15.62640539656583</v>
+        <v>15.56432801617137</v>
       </c>
       <c r="P3" t="n">
-        <v>273.6638433751496</v>
+        <v>273.4487750037689</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24547,28 +24805,28 @@
         <v>0.0483</v>
       </c>
       <c r="I4" t="n">
-        <v>0.440303523746194</v>
+        <v>0.4587878126133769</v>
       </c>
       <c r="J4" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K4" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03579411232752605</v>
+        <v>0.03946738385824378</v>
       </c>
       <c r="M4" t="n">
-        <v>13.41724714065523</v>
+        <v>13.34658110337997</v>
       </c>
       <c r="N4" t="n">
-        <v>262.660043580503</v>
+        <v>260.2887042982976</v>
       </c>
       <c r="O4" t="n">
-        <v>16.2067900455489</v>
+        <v>16.13346535305721</v>
       </c>
       <c r="P4" t="n">
-        <v>274.8360309703642</v>
+        <v>274.6442715760741</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24624,28 +24882,28 @@
         <v>0.0484</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3240919548855544</v>
+        <v>0.3446342239507562</v>
       </c>
       <c r="J5" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K5" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01952319284489745</v>
+        <v>0.02240761889987097</v>
       </c>
       <c r="M5" t="n">
-        <v>13.37904228838403</v>
+        <v>13.32808789822512</v>
       </c>
       <c r="N5" t="n">
-        <v>263.9641184360125</v>
+        <v>261.8056571642526</v>
       </c>
       <c r="O5" t="n">
-        <v>16.24697259294828</v>
+        <v>16.18040967232451</v>
       </c>
       <c r="P5" t="n">
-        <v>281.7008807122339</v>
+        <v>281.4860053354373</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24701,28 +24959,28 @@
         <v>0.0551</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1233201203072909</v>
+        <v>0.1471442882957349</v>
       </c>
       <c r="J6" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K6" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002664267952096067</v>
+        <v>0.003858194080897492</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8683822038624</v>
+        <v>13.8136436042138</v>
       </c>
       <c r="N6" t="n">
-        <v>289.7865142735478</v>
+        <v>287.5460412202323</v>
       </c>
       <c r="O6" t="n">
-        <v>17.02311705515614</v>
+        <v>16.95718258497656</v>
       </c>
       <c r="P6" t="n">
-        <v>290.679434204685</v>
+        <v>290.4343361615331</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24778,28 +25036,28 @@
         <v>0.0542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3817231603746059</v>
+        <v>0.4232501371860344</v>
       </c>
       <c r="J7" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K7" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01789139349854996</v>
+        <v>0.02221113397653529</v>
       </c>
       <c r="M7" t="n">
-        <v>16.33402717191193</v>
+        <v>16.34029942552584</v>
       </c>
       <c r="N7" t="n">
-        <v>394.6707131738881</v>
+        <v>393.4448121130559</v>
       </c>
       <c r="O7" t="n">
-        <v>19.86632107799247</v>
+        <v>19.83544333038856</v>
       </c>
       <c r="P7" t="n">
-        <v>282.4066822488221</v>
+        <v>281.9716724251762</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24855,28 +25113,28 @@
         <v>0.033</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3989223841990773</v>
+        <v>0.4109138914740562</v>
       </c>
       <c r="J8" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K8" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02109664204316752</v>
+        <v>0.02283489217119838</v>
       </c>
       <c r="M8" t="n">
-        <v>15.31010225496295</v>
+        <v>15.18433634093878</v>
       </c>
       <c r="N8" t="n">
-        <v>374.7029315118413</v>
+        <v>370.5079947255083</v>
       </c>
       <c r="O8" t="n">
-        <v>19.35724493598821</v>
+        <v>19.24858422652192</v>
       </c>
       <c r="P8" t="n">
-        <v>279.5440860485731</v>
+        <v>279.4204374094876</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24932,28 +25190,28 @@
         <v>0.0456</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1660573662758155</v>
+        <v>0.2015396873250808</v>
       </c>
       <c r="J9" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K9" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005029004974578144</v>
+        <v>0.007586662878762862</v>
       </c>
       <c r="M9" t="n">
-        <v>13.4119869923031</v>
+        <v>13.35889980880759</v>
       </c>
       <c r="N9" t="n">
-        <v>285.2873842848688</v>
+        <v>282.0237849563256</v>
       </c>
       <c r="O9" t="n">
-        <v>16.89045245944788</v>
+        <v>16.79356379558328</v>
       </c>
       <c r="P9" t="n">
-        <v>281.7545617549029</v>
+        <v>281.3967430872694</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -25009,28 +25267,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1453074380787578</v>
+        <v>-0.07338229785015703</v>
       </c>
       <c r="J10" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K10" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003868842843534392</v>
+        <v>0.0009952861566009386</v>
       </c>
       <c r="M10" t="n">
-        <v>13.06688192307916</v>
+        <v>13.24015969753731</v>
       </c>
       <c r="N10" t="n">
-        <v>274.5445808884201</v>
+        <v>277.4439416790986</v>
       </c>
       <c r="O10" t="n">
-        <v>16.56938685915746</v>
+        <v>16.65664857284017</v>
       </c>
       <c r="P10" t="n">
-        <v>286.743925452542</v>
+        <v>286.0068898911846</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -25080,28 +25338,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.01741652553895355</v>
+        <v>0.01438262867509191</v>
       </c>
       <c r="J11" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K11" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L11" t="n">
-        <v>5.74526831922384e-05</v>
+        <v>3.977321830761493e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>13.31349899729884</v>
+        <v>13.31785638685853</v>
       </c>
       <c r="N11" t="n">
-        <v>264.6723877066956</v>
+        <v>263.8437531376449</v>
       </c>
       <c r="O11" t="n">
-        <v>16.26875495256769</v>
+        <v>16.2432679328282</v>
       </c>
       <c r="P11" t="n">
-        <v>288.249083147127</v>
+        <v>287.9234342685452</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -25157,28 +25415,28 @@
         <v>0.0438</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02824514863636498</v>
+        <v>0.01333378398180466</v>
       </c>
       <c r="J12" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K12" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001317931619367885</v>
+        <v>2.966779778812434e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>14.47532567605215</v>
+        <v>14.50895537637149</v>
       </c>
       <c r="N12" t="n">
-        <v>312.055620487511</v>
+        <v>312.5009213535939</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66509610750848</v>
+        <v>17.67769558945945</v>
       </c>
       <c r="P12" t="n">
-        <v>297.2288003404694</v>
+        <v>296.8099765243841</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -25234,28 +25492,28 @@
         <v>0.0273</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2456773163929634</v>
+        <v>0.2732226635379645</v>
       </c>
       <c r="J13" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00711028151359927</v>
+        <v>0.008938851478564214</v>
       </c>
       <c r="M13" t="n">
-        <v>16.09597930825913</v>
+        <v>16.03513462783167</v>
       </c>
       <c r="N13" t="n">
-        <v>428.8680356147033</v>
+        <v>425.6710321217977</v>
       </c>
       <c r="O13" t="n">
-        <v>20.70912928190616</v>
+        <v>20.6317966285488</v>
       </c>
       <c r="P13" t="n">
-        <v>306.1712763321561</v>
+        <v>305.8884720828315</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -25311,28 +25569,28 @@
         <v>0.0405</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08121080930083363</v>
+        <v>0.1121773119164067</v>
       </c>
       <c r="J14" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K14" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000841999717081543</v>
+        <v>0.001632131128765812</v>
       </c>
       <c r="M14" t="n">
-        <v>15.64734336798712</v>
+        <v>15.65334617466974</v>
       </c>
       <c r="N14" t="n">
-        <v>389.9319157739792</v>
+        <v>387.6930777966111</v>
       </c>
       <c r="O14" t="n">
-        <v>19.74669379349311</v>
+        <v>19.68992325522401</v>
       </c>
       <c r="P14" t="n">
-        <v>324.3211779150561</v>
+        <v>324.0003097319164</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -25388,28 +25646,28 @@
         <v>0.057</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03761712835416814</v>
+        <v>0.07966630603288642</v>
       </c>
       <c r="J15" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K15" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002272079150290596</v>
+        <v>0.00102632080040499</v>
       </c>
       <c r="M15" t="n">
-        <v>14.23686649141159</v>
+        <v>14.34723563167656</v>
       </c>
       <c r="N15" t="n">
-        <v>311.2924074871754</v>
+        <v>312.0590650260284</v>
       </c>
       <c r="O15" t="n">
-        <v>17.64348059446252</v>
+        <v>17.66519360284592</v>
       </c>
       <c r="P15" t="n">
-        <v>322.3191865106365</v>
+        <v>321.8839571354962</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -25465,28 +25723,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03985988432433012</v>
+        <v>0.08776702113430632</v>
       </c>
       <c r="J16" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K16" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000227495143220402</v>
+        <v>0.001108342546825014</v>
       </c>
       <c r="M16" t="n">
-        <v>14.50613895688829</v>
+        <v>14.59104559292632</v>
       </c>
       <c r="N16" t="n">
-        <v>339.9885859575049</v>
+        <v>341.6105724621488</v>
       </c>
       <c r="O16" t="n">
-        <v>18.43877940530514</v>
+        <v>18.48271009517135</v>
       </c>
       <c r="P16" t="n">
-        <v>314.7103036554682</v>
+        <v>314.2059894456656</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -25542,28 +25800,28 @@
         <v>0.0455</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1756074343770709</v>
+        <v>-0.13022193072719</v>
       </c>
       <c r="J17" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K17" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004235041994587907</v>
+        <v>0.002355674651867479</v>
       </c>
       <c r="M17" t="n">
-        <v>15.18114840687472</v>
+        <v>15.28063945267926</v>
       </c>
       <c r="N17" t="n">
-        <v>356.4635477409976</v>
+        <v>356.8332584074454</v>
       </c>
       <c r="O17" t="n">
-        <v>18.88024225853571</v>
+        <v>18.89003066189797</v>
       </c>
       <c r="P17" t="n">
-        <v>314.3301612933117</v>
+        <v>313.8548438315579</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -25619,28 +25877,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.120555321554799</v>
+        <v>-0.0818248152890864</v>
       </c>
       <c r="J18" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001924492167284519</v>
+        <v>0.000898758201311356</v>
       </c>
       <c r="M18" t="n">
-        <v>15.45252878316119</v>
+        <v>15.47317723173409</v>
       </c>
       <c r="N18" t="n">
-        <v>360.9134897793147</v>
+        <v>359.9585430680147</v>
       </c>
       <c r="O18" t="n">
-        <v>18.9977232788383</v>
+        <v>18.97257344347399</v>
       </c>
       <c r="P18" t="n">
-        <v>310.9896223475121</v>
+        <v>310.5736190253332</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -25696,28 +25954,28 @@
         <v>0.0532</v>
       </c>
       <c r="I19" t="n">
-        <v>0.138104635451114</v>
+        <v>0.1783496286751102</v>
       </c>
       <c r="J19" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K19" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002405911407625805</v>
+        <v>0.004058206850710899</v>
       </c>
       <c r="M19" t="n">
-        <v>15.76923488096986</v>
+        <v>15.79650981443844</v>
       </c>
       <c r="N19" t="n">
-        <v>376.2802686571528</v>
+        <v>375.4045651443117</v>
       </c>
       <c r="O19" t="n">
-        <v>19.3979449596382</v>
+        <v>19.37535974231993</v>
       </c>
       <c r="P19" t="n">
-        <v>308.2180414593706</v>
+        <v>307.7866201498354</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -25773,28 +26031,28 @@
         <v>0.0427</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1128646309730311</v>
+        <v>0.1530462637728538</v>
       </c>
       <c r="J20" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K20" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001734251659016528</v>
+        <v>0.003228571440249683</v>
       </c>
       <c r="M20" t="n">
-        <v>15.14990332198699</v>
+        <v>15.19443990302771</v>
       </c>
       <c r="N20" t="n">
-        <v>363.0608963789206</v>
+        <v>362.1226832735531</v>
       </c>
       <c r="O20" t="n">
-        <v>19.05415693172806</v>
+        <v>19.02952136217706</v>
       </c>
       <c r="P20" t="n">
-        <v>312.2683993642505</v>
+        <v>311.8511841161169</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -25850,28 +26108,28 @@
         <v>0.0432</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00578954462716229</v>
+        <v>0.05807700162820682</v>
       </c>
       <c r="J21" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K21" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L21" t="n">
-        <v>4.703948279893844e-06</v>
+        <v>0.0004737653577220335</v>
       </c>
       <c r="M21" t="n">
-        <v>15.07237420032313</v>
+        <v>15.19221026727335</v>
       </c>
       <c r="N21" t="n">
-        <v>359.5383226477835</v>
+        <v>362.7041202439945</v>
       </c>
       <c r="O21" t="n">
-        <v>18.96149579141328</v>
+        <v>19.044792470489</v>
       </c>
       <c r="P21" t="n">
-        <v>319.9807609560677</v>
+        <v>319.4385542889132</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -25927,28 +26185,28 @@
         <v>0.0511</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1760543388052868</v>
+        <v>-0.09408836010896418</v>
       </c>
       <c r="J22" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K22" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004099284239749812</v>
+        <v>0.001152701882844442</v>
       </c>
       <c r="M22" t="n">
-        <v>15.81438520519934</v>
+        <v>16.06434673447467</v>
       </c>
       <c r="N22" t="n">
-        <v>389.2879967351308</v>
+        <v>400.5336025449627</v>
       </c>
       <c r="O22" t="n">
-        <v>19.73038257954292</v>
+        <v>20.01333561765661</v>
       </c>
       <c r="P22" t="n">
-        <v>329.6802289748877</v>
+        <v>328.8416277885088</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -26004,28 +26262,28 @@
         <v>0.0576</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.4581587948175825</v>
+        <v>-0.3562421569454918</v>
       </c>
       <c r="J23" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K23" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02439857495730124</v>
+        <v>0.01441290002546691</v>
       </c>
       <c r="M23" t="n">
-        <v>16.22798784288448</v>
+        <v>16.56473984950231</v>
       </c>
       <c r="N23" t="n">
-        <v>418.1529150819858</v>
+        <v>437.0804483260739</v>
       </c>
       <c r="O23" t="n">
-        <v>20.44878761887819</v>
+        <v>20.90646905448344</v>
       </c>
       <c r="P23" t="n">
-        <v>342.0510617213959</v>
+        <v>340.9924774157857</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -26081,28 +26339,28 @@
         <v>0.0568</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3889943924707925</v>
+        <v>-0.2996026722955228</v>
       </c>
       <c r="J24" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K24" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01843155351215853</v>
+        <v>0.01077851111380845</v>
       </c>
       <c r="M24" t="n">
-        <v>15.72866265843248</v>
+        <v>15.96815755551532</v>
       </c>
       <c r="N24" t="n">
-        <v>395.0715447821032</v>
+        <v>408.7576423917181</v>
       </c>
       <c r="O24" t="n">
-        <v>19.87640673718726</v>
+        <v>20.21775562201992</v>
       </c>
       <c r="P24" t="n">
-        <v>352.4463369949834</v>
+        <v>351.5166067628432</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -26158,28 +26416,28 @@
         <v>0.0541</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2651971496484736</v>
+        <v>-0.1770494490565662</v>
       </c>
       <c r="J25" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K25" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01055343185014279</v>
+        <v>0.004563448197560382</v>
       </c>
       <c r="M25" t="n">
-        <v>14.54382431637679</v>
+        <v>14.79921930959636</v>
       </c>
       <c r="N25" t="n">
-        <v>329.5649370620977</v>
+        <v>345.7627515085929</v>
       </c>
       <c r="O25" t="n">
-        <v>18.15392346194336</v>
+        <v>18.59469686519769</v>
       </c>
       <c r="P25" t="n">
-        <v>364.125505186186</v>
+        <v>363.2162051364439</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -26235,28 +26493,28 @@
         <v>0.0536</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.3448942974830596</v>
+        <v>-0.2484941129135438</v>
       </c>
       <c r="J26" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K26" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01570291839910509</v>
+        <v>0.007948315810935136</v>
       </c>
       <c r="M26" t="n">
-        <v>15.46134826745019</v>
+        <v>15.77791740023688</v>
       </c>
       <c r="N26" t="n">
-        <v>372.9998566725764</v>
+        <v>390.0463350353722</v>
       </c>
       <c r="O26" t="n">
-        <v>19.31320420522127</v>
+        <v>19.74959075614916</v>
       </c>
       <c r="P26" t="n">
-        <v>356.9431534991691</v>
+        <v>355.9468525920901</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -26312,28 +26570,28 @@
         <v>0.0645</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5448512366372934</v>
+        <v>-0.4369723786436417</v>
       </c>
       <c r="J27" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K27" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0342011241188952</v>
+        <v>0.0214933065560694</v>
       </c>
       <c r="M27" t="n">
-        <v>16.2203074471081</v>
+        <v>16.58802513487555</v>
       </c>
       <c r="N27" t="n">
-        <v>422.1481651642794</v>
+        <v>442.6223929770474</v>
       </c>
       <c r="O27" t="n">
-        <v>20.54624455135973</v>
+        <v>21.0385929419495</v>
       </c>
       <c r="P27" t="n">
-        <v>351.8446590674519</v>
+        <v>350.7303540985765</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -26389,28 +26647,28 @@
         <v>0.0603</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6081572495148281</v>
+        <v>-0.5016117552696847</v>
       </c>
       <c r="J28" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K28" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03923595586928019</v>
+        <v>0.02625797347382053</v>
       </c>
       <c r="M28" t="n">
-        <v>16.68148046494331</v>
+        <v>16.99194302787058</v>
       </c>
       <c r="N28" t="n">
-        <v>447.5198133696813</v>
+        <v>466.1737839146591</v>
       </c>
       <c r="O28" t="n">
-        <v>21.15466410439271</v>
+        <v>21.59105796191236</v>
       </c>
       <c r="P28" t="n">
-        <v>346.5574487467069</v>
+        <v>345.4422696761638</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -26466,28 +26724,28 @@
         <v>0.0567</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.5317627671132651</v>
+        <v>-0.4189960598081011</v>
       </c>
       <c r="J29" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03729922146013154</v>
+        <v>0.02241373875735131</v>
       </c>
       <c r="M29" t="n">
-        <v>15.25508495556903</v>
+        <v>15.610803990011</v>
       </c>
       <c r="N29" t="n">
-        <v>370.8967951062257</v>
+        <v>393.5850316913442</v>
       </c>
       <c r="O29" t="n">
-        <v>19.25868103236111</v>
+        <v>19.83897758684515</v>
       </c>
       <c r="P29" t="n">
-        <v>341.4844041221816</v>
+        <v>340.3281162525307</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -26543,28 +26801,28 @@
         <v>0.048</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.6682585168145821</v>
+        <v>-0.5557375591360084</v>
       </c>
       <c r="J30" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K30" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05011611441620101</v>
+        <v>0.03388589588715651</v>
       </c>
       <c r="M30" t="n">
-        <v>16.31743250616865</v>
+        <v>16.63576930794079</v>
       </c>
       <c r="N30" t="n">
-        <v>432.2330352201298</v>
+        <v>454.5861692226193</v>
       </c>
       <c r="O30" t="n">
-        <v>20.79021489114843</v>
+        <v>21.32102645799726</v>
       </c>
       <c r="P30" t="n">
-        <v>340.4132713153816</v>
+        <v>339.2596079909408</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -26620,28 +26878,28 @@
         <v>0.0474</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.9550406644887367</v>
+        <v>-0.8507150944338336</v>
       </c>
       <c r="J31" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K31" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L31" t="n">
-        <v>0.08757367439898844</v>
+        <v>0.06910886895577362</v>
       </c>
       <c r="M31" t="n">
-        <v>18.59017605584086</v>
+        <v>18.86925074969552</v>
       </c>
       <c r="N31" t="n">
-        <v>506.4946020071411</v>
+        <v>524.9455394631367</v>
       </c>
       <c r="O31" t="n">
-        <v>22.50543494374506</v>
+        <v>22.9116900176119</v>
       </c>
       <c r="P31" t="n">
-        <v>340.9054327793177</v>
+        <v>339.8602569528075</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -26697,28 +26955,28 @@
         <v>0.0496</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.7536579219871453</v>
+        <v>-0.6530218414903389</v>
       </c>
       <c r="J32" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K32" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L32" t="n">
-        <v>0.05413115937811375</v>
+        <v>0.04037642843888578</v>
       </c>
       <c r="M32" t="n">
-        <v>18.55138276152639</v>
+        <v>18.83250468055508</v>
       </c>
       <c r="N32" t="n">
-        <v>516.2951735099787</v>
+        <v>532.893598562795</v>
       </c>
       <c r="O32" t="n">
-        <v>22.72212959891697</v>
+        <v>23.08448826729315</v>
       </c>
       <c r="P32" t="n">
-        <v>336.6621255153966</v>
+        <v>335.6402967758719</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -26777,7 +27035,7 @@
         <v>-0.7980531370010364</v>
       </c>
       <c r="J33" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K33" t="n">
         <v>152</v>
@@ -26854,7 +27112,7 @@
         <v>-1.442063820415608</v>
       </c>
       <c r="J34" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K34" t="n">
         <v>149</v>
@@ -26928,28 +27186,28 @@
         <v>0.0427</v>
       </c>
       <c r="I35" t="n">
-        <v>-2.729091998511787</v>
+        <v>-2.723045003655673</v>
       </c>
       <c r="J35" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K35" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2084413113137583</v>
+        <v>0.2099086457508769</v>
       </c>
       <c r="M35" t="n">
-        <v>30.89756954226274</v>
+        <v>30.7117325416509</v>
       </c>
       <c r="N35" t="n">
-        <v>1467.40725504915</v>
+        <v>1457.498030297139</v>
       </c>
       <c r="O35" t="n">
-        <v>38.30675208170422</v>
+        <v>38.17719254079769</v>
       </c>
       <c r="P35" t="n">
-        <v>342.820197419632</v>
+        <v>342.7605811128766</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -27005,28 +27263,28 @@
         <v>0.0428</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.005125941331133</v>
+        <v>-2.097572000305383</v>
       </c>
       <c r="J36" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K36" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1040037583509051</v>
+        <v>0.113674776305028</v>
       </c>
       <c r="M36" t="n">
-        <v>30.31123488134584</v>
+        <v>30.65795924425678</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.7083481872</v>
+        <v>1691.602910801691</v>
       </c>
       <c r="O36" t="n">
-        <v>41.05737873010404</v>
+        <v>41.12910053480006</v>
       </c>
       <c r="P36" t="n">
-        <v>334.726408859178</v>
+        <v>335.6136307890448</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -27082,28 +27340,28 @@
         <v>0.0692</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.403432417759531</v>
+        <v>-3.50325840942408</v>
       </c>
       <c r="J37" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K37" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1671457104724158</v>
+        <v>0.1769013384624532</v>
       </c>
       <c r="M37" t="n">
-        <v>37.02652434524985</v>
+        <v>37.50008583783457</v>
       </c>
       <c r="N37" t="n">
-        <v>2921.910782542494</v>
+        <v>2923.983930350202</v>
       </c>
       <c r="O37" t="n">
-        <v>54.05470176166449</v>
+        <v>54.07387474881195</v>
       </c>
       <c r="P37" t="n">
-        <v>350.4764191040883</v>
+        <v>351.4323961059447</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -27159,28 +27417,28 @@
         <v>0.0609</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.6538077727201621</v>
+        <v>-0.6714533507459581</v>
       </c>
       <c r="J38" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K38" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L38" t="n">
-        <v>0.03312338848220964</v>
+        <v>0.03570445776202635</v>
       </c>
       <c r="M38" t="n">
-        <v>19.93155223184431</v>
+        <v>19.80256051932691</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7736281831816</v>
+        <v>627.3118387612611</v>
       </c>
       <c r="O38" t="n">
-        <v>25.15499211256449</v>
+        <v>25.04619409733266</v>
       </c>
       <c r="P38" t="n">
-        <v>328.403732049863</v>
+        <v>328.5665041265992</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -27236,28 +27494,28 @@
         <v>0.037</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.081762505528406</v>
+        <v>-2.013084275791927</v>
       </c>
       <c r="J39" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K39" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1192157705317818</v>
+        <v>0.1138263350008422</v>
       </c>
       <c r="M39" t="n">
-        <v>31.295352411421</v>
+        <v>31.29646781151171</v>
       </c>
       <c r="N39" t="n">
-        <v>1535.16118052254</v>
+        <v>1529.299445038948</v>
       </c>
       <c r="O39" t="n">
-        <v>39.18113296629566</v>
+        <v>39.10625838710408</v>
       </c>
       <c r="P39" t="n">
-        <v>345.4717564240235</v>
+        <v>344.7521176167193</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -27294,7 +27552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN197"/>
+  <dimension ref="A1:AN199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60695,8 +60953,16 @@
           <t>-36.120479876617516,175.4231806211642</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>-36.121203063158475,175.4231039101945</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>-36.12193391767526,175.42311032866712</t>
+        </is>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>-36.122652303137265,175.4229817578771</t>
@@ -60817,7 +61083,11 @@
           <t>-36.13866848871419,175.42871768481058</t>
         </is>
       </c>
-      <c r="AI197" t="inlineStr"/>
+      <c r="AI197" t="inlineStr">
+        <is>
+          <t>-36.13935885006187,175.42905835561263</t>
+        </is>
+      </c>
       <c r="AJ197" t="inlineStr"/>
       <c r="AK197" t="inlineStr">
         <is>
@@ -60837,6 +61107,370 @@
       <c r="AN197" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>-36.11626049025555,175.4251011400911</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-36.11690020199268,175.4246640965109</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>-36.117580151314364,175.42434951789247</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>-36.118262928813344,175.4240435633476</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>-36.118987665948154,175.4237487911677</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>-36.119757057603984,175.42356427133504</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>-36.120483190943716,175.4232165203367</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>-36.12121003138297,175.42317938743165</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>-36.121941140532634,175.42318856530844</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>-36.12265612772257,175.42302318516764</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>-36.12339036035013,175.42306634220915</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>-36.12410771718052,175.42292677266573</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>-36.12487194434099,175.42309921949416</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>-36.12560581699961,175.4232273060969</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>-36.126354661786664,175.42324679021863</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>-36.127068586766626,175.4234123405793</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>-36.127781537122864,175.42358292347575</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>-36.12847679200786,175.4238454510291</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>-36.12918968337485,175.42401627409956</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>-36.129894484927114,175.424229113391</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>-36.13055890604595,175.42465180952098</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t>-36.131249467665654,175.4249385987246</t>
+        </is>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>-36.13195167115893,175.42516484283422</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>-36.13262305028752,175.425457259012</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>-36.13325295569141,175.42585447980883</t>
+        </is>
+      </c>
+      <c r="AA198" t="inlineStr">
+        <is>
+          <t>-36.13388294230581,175.42629855509387</t>
+        </is>
+      </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>-36.13453656506959,175.4266936509109</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>-36.13518765143133,175.42709412709425</t>
+        </is>
+      </c>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>-36.13582879770554,175.42751572086152</t>
+        </is>
+      </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>-36.13650291899806,175.42786721227998</t>
+        </is>
+      </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>-36.13715692796221,175.428264581457</t>
+        </is>
+      </c>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
+      <c r="AJ198" t="inlineStr">
+        <is>
+          <t>-36.14019106170957,175.42914148208433</t>
+        </is>
+      </c>
+      <c r="AK198" t="inlineStr">
+        <is>
+          <t>-36.14093342937227,175.42938771284096</t>
+        </is>
+      </c>
+      <c r="AL198" t="inlineStr">
+        <is>
+          <t>-36.14105255661614,175.43076545427357</t>
+        </is>
+      </c>
+      <c r="AM198" t="inlineStr">
+        <is>
+          <t>-36.141552121505796,175.43145248508594</t>
+        </is>
+      </c>
+      <c r="AN198" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>-36.1162549393538,175.42508424805106</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-36.11691555821043,175.42471082730677</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>-36.11757091724146,175.42432141743672</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-36.11825788519402,175.42402821490566</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>-36.118972025444435,175.42368918297296</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>-36.119746351055035,175.4234902404036</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>-36.12048855292995,175.42327459902356</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>-36.121207912395825,175.42315643528823</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>-36.12192613537982,175.4230260329373</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>-36.122645705385246,175.42291029246886</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>-36.123377615922806,175.42292829447683</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>-36.12411931036291,175.423052352032</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>-36.124872519186646,175.42298701522284</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>-36.12562251021194,175.42311454890282</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>-36.126329925984116,175.42337536138098</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>-36.12706361761028,175.423438169287</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>-36.12778864782944,175.42354596324205</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>-36.12849371877548,175.42375746861322</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>-36.12918404877345,175.4240455617888</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>-36.12985096699945,175.42445531124042</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>-36.130529008827985,175.4248072083782</t>
+        </is>
+      </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t>-36.13120112463096,175.42518987345872</t>
+        </is>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>-36.131893347092465,175.42546799612992</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>-36.13250084650374,175.4258409304985</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>-36.13312164050657,175.42613680302736</t>
+        </is>
+      </c>
+      <c r="AA199" t="inlineStr">
+        <is>
+          <t>-36.13379745573632,175.4264802629542</t>
+        </is>
+      </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>-36.13447892859283,175.42681616173635</t>
+        </is>
+      </c>
+      <c r="AC199" t="inlineStr">
+        <is>
+          <t>-36.13510682434018,175.42726593156135</t>
+        </is>
+      </c>
+      <c r="AD199" t="inlineStr">
+        <is>
+          <t>-36.135764339655786,175.42765273184685</t>
+        </is>
+      </c>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>-36.13644519133503,175.42798991768373</t>
+        </is>
+      </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>-36.13706833170849,175.42844762375</t>
+        </is>
+      </c>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
+      <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0114/nzd0114.xlsx
+++ b/data/nzd0114/nzd0114.xlsx
@@ -24496,7 +24496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24587,35 +24587,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24674,27 +24679,28 @@
       <c r="P2" t="n">
         <v>279.360968487571</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.4220106092349 -36.11524485568888, 175.4315142232839 -36.11836766376123)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.4220106092349</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.11524485568888</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.4315142232839</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.11836766376123</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.4267624162594</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.11680625972505</v>
       </c>
     </row>
@@ -24751,27 +24757,28 @@
       <c r="P3" t="n">
         <v>273.4487750037689</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.42165946624635 -36.115912797937014, 175.43116312600438 -36.11903561267061)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.4216594662464</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.11591279793701</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.4311631260044</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.11903561267061</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.4264112961254</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.11747420530381</v>
       </c>
     </row>
@@ -24828,27 +24835,28 @@
       <c r="P4" t="n">
         <v>274.6442715760741</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.42130832325756 -36.11658073450331, 175.43081202872526 -36.11970355589861)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.4213083232576</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.11658073450331</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.4308120287253</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.11970355589861</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.4260601759914</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.11814214520096</v>
       </c>
     </row>
@@ -24905,27 +24913,28 @@
       <c r="P5" t="n">
         <v>281.4860053354373</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.42095718026857 -36.11724866538782, 175.4304609314466 -36.12037149344495)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.4209571802686</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.11724866538782</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.4304609314466</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.12037149344495</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.4257090558576</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.11881007941638</v>
       </c>
     </row>
@@ -24982,27 +24991,28 @@
       <c r="P6" t="n">
         <v>290.4343361615331</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.4205062291002 -36.11813680208455, 175.43026310924404 -36.12069672837774)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.4205062291002</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.11813680208455</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.430263109244</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.12069672837774</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.4253846691721</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.11941676523114</v>
       </c>
     </row>
@@ -25059,27 +25069,28 @@
       <c r="P7" t="n">
         <v>281.9716724251762</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.42014600189336 -36.11926264720964, 175.43024232716525 -36.120722653599266)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.4201460018934</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.11926264720964</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.4302423271652</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.12072265359927</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.4251941645293</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.11999265040446</v>
       </c>
     </row>
@@ -25136,27 +25147,28 @@
       <c r="P8" t="n">
         <v>279.4204374094876</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.4199924826302 -36.120185493188906, 175.43018253534595 -36.12112610545951)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.4199924826302</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.12018549318891</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.4301825353459</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.12112610545951</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.4250875089881</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.12065579932421</v>
       </c>
     </row>
@@ -25213,27 +25225,28 @@
       <c r="P9" t="n">
         <v>281.3967430872694</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.41987627513905 -36.12090503484189, 175.430066388234 -36.12184564776732)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.419876275139</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.12090503484189</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.430066388234</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.12184564776732</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.4249713316865</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.12137534130461</v>
       </c>
     </row>
@@ -25290,27 +25303,28 @@
       <c r="P10" t="n">
         <v>286.0068898911846</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.4197600676473 -36.12162456990037, 175.42995024112304 -36.12256518348087)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.4197600676473</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.12162456990037</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.429950241123</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.12256518348087</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.4248551543852</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.12209487669062</v>
       </c>
     </row>
@@ -25361,27 +25375,28 @@
       <c r="P11" t="n">
         <v>287.9234342685452</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.41964386015502 -36.1223440983644, 175.42983409401305 -36.12328471259988)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.419643860155</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.1223440983644</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.429834094013</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.12328471259988</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.424738977084</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.12281440548215</v>
       </c>
     </row>
@@ -25438,27 +25453,28 @@
       <c r="P12" t="n">
         <v>296.8099765243841</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.4195276526623 -36.123063620233815, 175.4297179469041 -36.124004235124524)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.4195276526623</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.12306362023381</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.4297179469041</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.12400423512452</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.4246227997832</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.12353392767917</v>
       </c>
     </row>
@@ -25515,27 +25531,28 @@
       <c r="P13" t="n">
         <v>305.8884720828315</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.41941144516906 -36.123783135508454, 175.4296017997962 -36.1247237510549)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.4194114451691</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.12378313550845</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.4296017997962</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.1247237510549</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.4245066224826</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.12425344328167</v>
       </c>
     </row>
@@ -25592,27 +25609,28 @@
       <c r="P14" t="n">
         <v>324.0003097319164</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.41926829284998 -36.12489151145009, 175.42952446386386 -36.12483885099527)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.41926829285</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.12489151145009</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.4295244638639</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.12483885099527</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.4243963783569</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.12486518122267</v>
       </c>
     </row>
@@ -25669,27 +25687,28 @@
       <c r="P15" t="n">
         <v>321.8839571354962</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.41943057136433 -36.126167845220806, 175.4295198842741 -36.12467404993151)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.4194305713643</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.12616784522081</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.4295198842741</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.12467404993151</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.4244752278192</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.12542094757616</v>
       </c>
     </row>
@@ -25746,27 +25765,28 @@
       <c r="P16" t="n">
         <v>314.2059894456656</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.4196666932075 -36.1270433754465, 175.42964558532498 -36.12512341309874)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.4196666932075</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.1270433754465</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.429645585325</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.12512341309874</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.4246561392662</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.12608339427262</v>
       </c>
     </row>
@@ -25823,27 +25843,28 @@
       <c r="P17" t="n">
         <v>313.8548438315579</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.41986004878956 -36.1277519497291, 175.42983899466148 -36.12583198060574)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.4198600487896</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.1277519497291</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.4298389946615</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.12583198060574</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.4248495217255</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.12679196516742</v>
       </c>
     </row>
@@ -25900,27 +25921,28 @@
       <c r="P18" t="n">
         <v>310.5736190253332</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.4200534043712 -36.12846051761547, 175.43003240399887 -36.1265405417163)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.4200534043712</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.12846051761547</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.4300324039989</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.1265405417163</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.425042904185</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.12750052966589</v>
       </c>
     </row>
@@ -25977,27 +25999,28 @@
       <c r="P19" t="n">
         <v>307.7866201498354</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.42024675995242 -36.129169079105644, 175.43022581333707 -36.12724909643039)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.4202467599524</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.12916907910564</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.4302258133371</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.12724909643039</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.4252362866447</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.12820908776801</v>
       </c>
     </row>
@@ -26054,27 +26077,28 @@
       <c r="P20" t="n">
         <v>311.8511841161169</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.4204401155332 -36.12987763419952, 175.43041922267614 -36.12795764474789)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.4204401155332</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.12987763419952</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.4304192226761</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.12795764474789</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.4254296691047</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.1289176394737</v>
       </c>
     </row>
@@ -26131,27 +26155,28 @@
       <c r="P21" t="n">
         <v>319.4385542889132</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.42063347111358 -36.13058618289707, 175.43061263201605 -36.12866618666883)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.4206334711136</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.13058618289707</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.4306126320161</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.12866618666883</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.4256230515648</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.12962618478295</v>
       </c>
     </row>
@@ -26208,27 +26233,28 @@
       <c r="P22" t="n">
         <v>328.8416277885088</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.4208268266935 -36.13129472519818, 175.43080604135682 -36.12937472219311)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.4208268266935</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.13129472519818</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.4308060413568</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.12937472219311</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.4258164340252</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.13033472369565</v>
       </c>
     </row>
@@ -26285,27 +26311,28 @@
       <c r="P23" t="n">
         <v>340.9924774157857</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (175.42102018227303 -36.132003261102874, 175.43099945069844 -36.1300832513207)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>175.421020182273</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-36.13200326110287</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>175.4309994506984</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-36.1300832513207</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>175.4260098164857</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-36.13104325621178</v>
       </c>
     </row>
@@ -26362,27 +26389,28 @@
       <c r="P24" t="n">
         <v>351.5166067628432</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (175.42121353785214 -36.132711790611054, 175.43119286004088 -36.130791774051524)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>175.4212135378521</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-36.13271179061105</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>175.4311928600409</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-36.13079177405152</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>175.4262031989465</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-36.13175178233129</v>
       </c>
     </row>
@@ -26439,27 +26467,28 @@
       <c r="P25" t="n">
         <v>363.2162051364439</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (175.4215755103008 -36.13385934273839, 175.43112101666287 -36.13081891721131)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>175.4215755103008</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-36.13385934273839</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>175.4311210166629</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-36.13081891721131</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>175.4263482634818</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-36.13233912997485</v>
       </c>
     </row>
@@ -26516,27 +26545,28 @@
       <c r="P26" t="n">
         <v>355.9468525920901</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (175.42225923613893 -36.134925093568704, 175.43115402258445 -36.13078783276016)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>175.4222592361389</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-36.1349250935687</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>175.4311540225845</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-36.13078783276016</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>175.4267066293617</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-36.13285646316443</v>
       </c>
     </row>
@@ -26593,27 +26623,28 @@
       <c r="P27" t="n">
         <v>350.7303540985765</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (175.42270763219184 -36.13557224074566, 175.4315770905361 -36.13139940967618)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>175.4227076321918</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-36.13557224074566</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>175.4315770905361</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-36.13139940967618</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>175.427142361364</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-36.13348582521092</v>
       </c>
     </row>
@@ -26670,27 +26701,28 @@
       <c r="P28" t="n">
         <v>345.4422696761638</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (175.4231461379462 -36.13620543974516, 175.43201562454843 -36.13203259818387)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>175.4231461379462</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-36.13620543974516</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>175.4320156245484</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-36.13203259818387</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>175.4275808812473</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-36.13411901896451</v>
       </c>
     </row>
@@ -26747,27 +26779,28 @@
       <c r="P29" t="n">
         <v>340.3281162525307</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (175.42358464370037 -36.13683863363551, 175.43245415856072 -36.13266578158209)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>175.4235846437004</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-36.13683863363551</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>175.4324541585607</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-36.13266578158209</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>175.4280194011305</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-36.1347522076088</v>
       </c>
     </row>
@@ -26824,27 +26857,28 @@
       <c r="P30" t="n">
         <v>339.2596079909408</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (175.42402314945465 -36.1374718224168, 175.43289269257286 -36.13329895987059)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>175.4240231494547</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-36.1374718224168</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>175.4328926925729</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-36.13329895987059</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>175.4284579210138</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-36.13538539114369</v>
       </c>
     </row>
@@ -26901,27 +26935,28 @@
       <c r="P31" t="n">
         <v>339.8602569528075</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (175.42446165520894 -36.13810500608883, 175.43333122658518 -36.13393213304965)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>175.4244616552089</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-36.13810500608883</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>175.4333312265852</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-36.13393213304965</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>175.4288964408971</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-36.13601856956924</v>
       </c>
     </row>
@@ -26978,27 +27013,28 @@
       <c r="P32" t="n">
         <v>335.6402967758719</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (175.42492541100535 -36.13877307299146, 175.43373028051772 -36.13451121409682)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>175.4249254110053</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-36.13877307299146</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>175.4337302805177</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-36.13451121409682</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>175.4293278457615</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-36.13664214354414</v>
       </c>
     </row>
@@ -27055,27 +27091,28 @@
       <c r="P33" t="n">
         <v>333.7052323771338</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (175.42545807521495 -36.13949511895863, 175.4340705926752 -36.134982746976576)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>175.4254580752149</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-36.13949511895863</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>175.4340705926752</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-36.13498274697658</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>175.4297643339451</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-36.13723893296761</v>
       </c>
     </row>
@@ -27132,27 +27169,28 @@
       <c r="P34" t="n">
         <v>334.2672136402807</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>LINESTRING (175.42600213078165 -36.1401641760186, 175.43448391124508 -36.13549215130879)</t>
         </is>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>175.4260021307817</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>-36.1401641760186</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>175.4344839112451</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>-36.13549215130879</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>175.4302430210134</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>-36.1378281636637</v>
       </c>
     </row>
@@ -27209,27 +27247,28 @@
       <c r="P35" t="n">
         <v>342.7605811128766</v>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
         <is>
           <t>LINESTRING (175.42649515617177 -36.14077061953688, 175.43497695686528 -36.13609858397002)</t>
         </is>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>175.4264951561718</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>-36.14077061953688</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>175.4349769568653</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>-36.13609858397002</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>175.4307360565185</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>-36.13843460175345</v>
       </c>
     </row>
@@ -27286,27 +27325,28 @@
       <c r="P36" t="n">
         <v>335.6136307890448</v>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
         <is>
           <t>LINESTRING (175.42698818156202 -36.141377058367944, 175.43547000248523 -36.13670501194362)</t>
         </is>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>175.426988181562</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>-36.14137705836794</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>175.4354700024852</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>-36.13670501194362</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>175.4312290920236</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>-36.13904103515578</v>
       </c>
     </row>
@@ -27363,27 +27403,28 @@
       <c r="P37" t="n">
         <v>351.4323961059447</v>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
         <is>
           <t>LINESTRING (175.42748120695242 -36.141983492511734, 175.43596304810507 -36.137311435229584)</t>
         </is>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>175.4274812069524</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>-36.14198349251173</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>175.4359630481051</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>-36.13731143522958</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>175.4317221275288</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>-36.13964746387066</v>
       </c>
     </row>
@@ -27440,27 +27481,28 @@
       <c r="P38" t="n">
         <v>328.5665041265992</v>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
         <is>
           <t>LINESTRING (175.42797423234293 -36.14258992196823, 175.4364560937246 -36.13791785382793)</t>
         </is>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>175.4279742323429</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>-36.14258992196823</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>175.4364560937246</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>-36.13791785382793</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>175.4322151630338</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>-36.14025388789808</v>
       </c>
     </row>
@@ -27517,27 +27559,28 @@
       <c r="P39" t="n">
         <v>344.7521176167193</v>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
         <is>
           <t>LINESTRING (175.42846725773356 -36.14319634673733, 175.436949139344 -36.138524267738646)</t>
         </is>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>175.4284672577336</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>-36.14319634673733</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>175.436949139344</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>-36.13852426773865</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>175.4327081985388</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>-36.14086030723799</v>
       </c>
     </row>

--- a/data/nzd0114/nzd0114.xlsx
+++ b/data/nzd0114/nzd0114.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN199"/>
+  <dimension ref="A1:AN201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22311,12 +22311,16 @@
       <c r="AF198" t="n">
         <v>350.0477777777777</v>
       </c>
-      <c r="AG198" t="inlineStr"/>
-      <c r="AH198" t="inlineStr"/>
-      <c r="AI198" t="inlineStr"/>
-      <c r="AJ198" t="n">
-        <v>234.3057142857143</v>
-      </c>
+      <c r="AG198" t="n">
+        <v>353.4077777777778</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>347.33</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>340.98</v>
+      </c>
+      <c r="AJ198" t="inlineStr"/>
       <c r="AK198" t="n">
         <v>207.45</v>
       </c>
@@ -22441,6 +22445,252 @@
       <c r="AN199" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>301.7911111111111</v>
+      </c>
+      <c r="C200" t="n">
+        <v>289.61</v>
+      </c>
+      <c r="D200" t="n">
+        <v>290.06</v>
+      </c>
+      <c r="E200" t="n">
+        <v>294.0611111111111</v>
+      </c>
+      <c r="F200" t="n">
+        <v>303.4911111111111</v>
+      </c>
+      <c r="G200" t="n">
+        <v>298.1811111111111</v>
+      </c>
+      <c r="H200" t="n">
+        <v>284.6766666666667</v>
+      </c>
+      <c r="I200" t="n">
+        <v>284.82</v>
+      </c>
+      <c r="J200" t="n">
+        <v>292.0972727272728</v>
+      </c>
+      <c r="K200" t="n">
+        <v>300.1789473684211</v>
+      </c>
+      <c r="L200" t="n">
+        <v>307.51</v>
+      </c>
+      <c r="M200" t="n">
+        <v>315.8</v>
+      </c>
+      <c r="N200" t="n">
+        <v>330.7114285714285</v>
+      </c>
+      <c r="O200" t="n">
+        <v>326.22</v>
+      </c>
+      <c r="P200" t="n">
+        <v>313.5314285714285</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>314.02</v>
+      </c>
+      <c r="R200" t="n">
+        <v>324.12</v>
+      </c>
+      <c r="S200" t="n">
+        <v>322.6711111111111</v>
+      </c>
+      <c r="T200" t="n">
+        <v>317.56</v>
+      </c>
+      <c r="U200" t="n">
+        <v>325.81</v>
+      </c>
+      <c r="V200" t="n">
+        <v>337.6711111111111</v>
+      </c>
+      <c r="W200" t="n">
+        <v>339.77</v>
+      </c>
+      <c r="X200" t="n">
+        <v>357.78</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>377.1011111111111</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>366.4711111111111</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>357.6672727272727</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>345.2</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>348.56</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>340.3111111111111</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>335.23</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>326.9911111111111</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>319.6411111111111</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>314.45</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>309.71</v>
+      </c>
+      <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="n">
+        <v>234.5911111111111</v>
+      </c>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>298.4533333333333</v>
+      </c>
+      <c r="C201" t="n">
+        <v>294.59</v>
+      </c>
+      <c r="D201" t="n">
+        <v>295.96</v>
+      </c>
+      <c r="E201" t="n">
+        <v>300.9133333333333</v>
+      </c>
+      <c r="F201" t="n">
+        <v>304.2233333333333</v>
+      </c>
+      <c r="G201" t="n">
+        <v>299.1533333333333</v>
+      </c>
+      <c r="H201" t="n">
+        <v>302.44</v>
+      </c>
+      <c r="I201" t="n">
+        <v>295.83</v>
+      </c>
+      <c r="J201" t="n">
+        <v>292.9590909090909</v>
+      </c>
+      <c r="K201" t="n">
+        <v>300.3015789473685</v>
+      </c>
+      <c r="L201" t="n">
+        <v>309.58</v>
+      </c>
+      <c r="M201" t="n">
+        <v>336.33</v>
+      </c>
+      <c r="N201" t="n">
+        <v>339.5628571428572</v>
+      </c>
+      <c r="O201" t="n">
+        <v>332.4</v>
+      </c>
+      <c r="P201" t="n">
+        <v>328.4028571428572</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>323.19</v>
+      </c>
+      <c r="R201" t="n">
+        <v>322.17</v>
+      </c>
+      <c r="S201" t="n">
+        <v>328.5433333333333</v>
+      </c>
+      <c r="T201" t="n">
+        <v>326.57</v>
+      </c>
+      <c r="U201" t="n">
+        <v>331.77</v>
+      </c>
+      <c r="V201" t="n">
+        <v>337.7533333333333</v>
+      </c>
+      <c r="W201" t="n">
+        <v>347.23</v>
+      </c>
+      <c r="X201" t="n">
+        <v>361.1</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>381.3233333333333</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>372.2233333333333</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>363.9890909090909</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>358.08</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>352.18</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>345.1233333333333</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>338.13</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>330.3733333333333</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>329.0033333333333</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>322.26</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>284.09</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>104.7828571428571</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>197.0390909090909</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>240.3533333333333</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>296.53</v>
+      </c>
+      <c r="AN201" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22455,7 +22705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24483,6 +24733,26 @@
       </c>
       <c r="B202" t="n">
         <v>0.39</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -24656,28 +24926,28 @@
         <v>0.0537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2886276576883347</v>
+        <v>0.3193219544321633</v>
       </c>
       <c r="J2" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02184296360451088</v>
+        <v>0.02692522488106397</v>
       </c>
       <c r="M2" t="n">
-        <v>11.23910567036373</v>
+        <v>11.26144543404328</v>
       </c>
       <c r="N2" t="n">
-        <v>192.105162208241</v>
+        <v>191.9177109233158</v>
       </c>
       <c r="O2" t="n">
-        <v>13.86020065541048</v>
+        <v>13.8534367910391</v>
       </c>
       <c r="P2" t="n">
-        <v>279.360968487571</v>
+        <v>279.0456538647864</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24734,28 +25004,28 @@
         <v>0.0433</v>
       </c>
       <c r="I3" t="n">
-        <v>0.478476990156453</v>
+        <v>0.4934219834537403</v>
       </c>
       <c r="J3" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04574478556207362</v>
+        <v>0.04950130862201885</v>
       </c>
       <c r="M3" t="n">
-        <v>12.96836577699542</v>
+        <v>12.879496559518</v>
       </c>
       <c r="N3" t="n">
-        <v>242.2483065949771</v>
+        <v>239.9317159267279</v>
       </c>
       <c r="O3" t="n">
-        <v>15.56432801617137</v>
+        <v>15.48972936906026</v>
       </c>
       <c r="P3" t="n">
-        <v>273.4487750037689</v>
+        <v>273.2943586216504</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24812,28 +25082,28 @@
         <v>0.0483</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4587878126133769</v>
+        <v>0.4737984826568071</v>
       </c>
       <c r="J4" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03946738385824378</v>
+        <v>0.04278536967465196</v>
       </c>
       <c r="M4" t="n">
-        <v>13.34658110337997</v>
+        <v>13.25897725656804</v>
       </c>
       <c r="N4" t="n">
-        <v>260.2887042982976</v>
+        <v>257.806542610406</v>
       </c>
       <c r="O4" t="n">
-        <v>16.13346535305721</v>
+        <v>16.05635520939936</v>
       </c>
       <c r="P4" t="n">
-        <v>274.6442715760741</v>
+        <v>274.4867808014582</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24890,28 +25160,28 @@
         <v>0.0484</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3446342239507562</v>
+        <v>0.3605726307039802</v>
       </c>
       <c r="J5" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02240761889987097</v>
+        <v>0.02492635852626868</v>
       </c>
       <c r="M5" t="n">
-        <v>13.32808789822512</v>
+        <v>13.25504166635139</v>
       </c>
       <c r="N5" t="n">
-        <v>261.8056571642526</v>
+        <v>259.4569075437351</v>
       </c>
       <c r="O5" t="n">
-        <v>16.18040967232451</v>
+        <v>16.10766611100861</v>
       </c>
       <c r="P5" t="n">
-        <v>281.4860053354373</v>
+        <v>281.3173890248289</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24968,28 +25238,28 @@
         <v>0.0551</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1471442882957349</v>
+        <v>0.1693221472560415</v>
       </c>
       <c r="J6" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003858194080897492</v>
+        <v>0.005199224467472119</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8136436042138</v>
+        <v>13.75174636543338</v>
       </c>
       <c r="N6" t="n">
-        <v>287.5460412202323</v>
+        <v>285.1286517297414</v>
       </c>
       <c r="O6" t="n">
-        <v>16.95718258497656</v>
+        <v>16.88575292161239</v>
       </c>
       <c r="P6" t="n">
-        <v>290.4343361615331</v>
+        <v>290.2036730659327</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25046,28 +25316,28 @@
         <v>0.0542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4232501371860344</v>
+        <v>0.4373225926765051</v>
       </c>
       <c r="J7" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02221113397653529</v>
+        <v>0.02420091422291737</v>
       </c>
       <c r="M7" t="n">
-        <v>16.34029942552584</v>
+        <v>16.20715758841078</v>
       </c>
       <c r="N7" t="n">
-        <v>393.4448121130559</v>
+        <v>388.9798487604955</v>
       </c>
       <c r="O7" t="n">
-        <v>19.83544333038856</v>
+        <v>19.72257206249975</v>
       </c>
       <c r="P7" t="n">
-        <v>281.9716724251762</v>
+        <v>281.8227100689477</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25124,28 +25394,28 @@
         <v>0.033</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4109138914740562</v>
+        <v>0.4193432145655753</v>
       </c>
       <c r="J8" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02283489217119838</v>
+        <v>0.02421822279935182</v>
       </c>
       <c r="M8" t="n">
-        <v>15.18433634093878</v>
+        <v>15.10703547551712</v>
       </c>
       <c r="N8" t="n">
-        <v>370.5079947255083</v>
+        <v>367.1283101132054</v>
       </c>
       <c r="O8" t="n">
-        <v>19.24858422652192</v>
+        <v>19.16059263470745</v>
       </c>
       <c r="P8" t="n">
-        <v>279.4204374094876</v>
+        <v>279.3323364007386</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25202,28 +25472,28 @@
         <v>0.0456</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2015396873250808</v>
+        <v>0.2101026061794689</v>
       </c>
       <c r="J9" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007586662878762862</v>
+        <v>0.008408354728303702</v>
       </c>
       <c r="M9" t="n">
-        <v>13.35889980880759</v>
+        <v>13.26369458232746</v>
       </c>
       <c r="N9" t="n">
-        <v>282.0237849563256</v>
+        <v>279.0870760034092</v>
       </c>
       <c r="O9" t="n">
-        <v>16.79356379558328</v>
+        <v>16.70589943712727</v>
       </c>
       <c r="P9" t="n">
-        <v>281.3967430872694</v>
+        <v>281.3090441895695</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25280,28 +25550,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07338229785015703</v>
+        <v>-0.05378653372111518</v>
       </c>
       <c r="J10" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009952861566009386</v>
+        <v>0.000545888661399152</v>
       </c>
       <c r="M10" t="n">
-        <v>13.24015969753731</v>
+        <v>13.18623966811739</v>
       </c>
       <c r="N10" t="n">
-        <v>277.4439416790986</v>
+        <v>274.8433629359809</v>
       </c>
       <c r="O10" t="n">
-        <v>16.65664857284017</v>
+        <v>16.57840049389509</v>
       </c>
       <c r="P10" t="n">
-        <v>286.0068898911846</v>
+        <v>285.8033131128621</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25352,28 +25622,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.01438262867509191</v>
+        <v>0.04249034127573481</v>
       </c>
       <c r="J11" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L11" t="n">
-        <v>3.977321830761493e-05</v>
+        <v>0.0003531901645558166</v>
       </c>
       <c r="M11" t="n">
-        <v>13.31785638685853</v>
+        <v>13.30139458306798</v>
       </c>
       <c r="N11" t="n">
-        <v>263.8437531376449</v>
+        <v>262.3152710535915</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2432679328282</v>
+        <v>16.19614988364801</v>
       </c>
       <c r="P11" t="n">
-        <v>287.9234342685452</v>
+        <v>287.6325819328127</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25430,28 +25700,28 @@
         <v>0.0438</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01333378398180466</v>
+        <v>0.03940877212752784</v>
       </c>
       <c r="J12" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L12" t="n">
-        <v>2.966779778812434e-05</v>
+        <v>0.0002639454156426746</v>
       </c>
       <c r="M12" t="n">
-        <v>14.50895537637149</v>
+        <v>14.46265256165746</v>
       </c>
       <c r="N12" t="n">
-        <v>312.5009213535939</v>
+        <v>310.2585873089538</v>
       </c>
       <c r="O12" t="n">
-        <v>17.67769558945945</v>
+        <v>17.61415871703653</v>
       </c>
       <c r="P12" t="n">
-        <v>296.8099765243841</v>
+        <v>296.5444639681229</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25508,28 +25778,28 @@
         <v>0.0273</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2732226635379645</v>
+        <v>0.3034698434298762</v>
       </c>
       <c r="J13" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008938851478564214</v>
+        <v>0.01116907252019161</v>
       </c>
       <c r="M13" t="n">
-        <v>16.03513462783167</v>
+        <v>15.98845525269167</v>
       </c>
       <c r="N13" t="n">
-        <v>425.6710321217977</v>
+        <v>423.8314483578051</v>
       </c>
       <c r="O13" t="n">
-        <v>20.6317966285488</v>
+        <v>20.58716707946494</v>
       </c>
       <c r="P13" t="n">
-        <v>305.8884720828315</v>
+        <v>305.574582396764</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25586,28 +25856,28 @@
         <v>0.0405</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1121773119164067</v>
+        <v>0.1309415121839165</v>
       </c>
       <c r="J14" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001632131128765812</v>
+        <v>0.002267372087809916</v>
       </c>
       <c r="M14" t="n">
-        <v>15.65334617466974</v>
+        <v>15.58422212032363</v>
       </c>
       <c r="N14" t="n">
-        <v>387.6930777966111</v>
+        <v>384.1412976022587</v>
       </c>
       <c r="O14" t="n">
-        <v>19.68992325522401</v>
+        <v>19.59952289220987</v>
       </c>
       <c r="P14" t="n">
-        <v>324.0003097319164</v>
+        <v>323.8036441052724</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25664,28 +25934,28 @@
         <v>0.057</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07966630603288642</v>
+        <v>0.09145190107410081</v>
       </c>
       <c r="J15" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00102632080040499</v>
+        <v>0.001379865047870021</v>
       </c>
       <c r="M15" t="n">
-        <v>14.34723563167656</v>
+        <v>14.25854063256484</v>
       </c>
       <c r="N15" t="n">
-        <v>312.0590650260284</v>
+        <v>308.9414713414724</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66519360284592</v>
+        <v>17.57673096288023</v>
       </c>
       <c r="P15" t="n">
-        <v>321.8839571354962</v>
+        <v>321.7605750800744</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25742,28 +26012,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08776702113430632</v>
+        <v>0.09776639990062444</v>
       </c>
       <c r="J16" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001108342546825014</v>
+        <v>0.001401732687106194</v>
       </c>
       <c r="M16" t="n">
-        <v>14.59104559292632</v>
+        <v>14.51178925301195</v>
       </c>
       <c r="N16" t="n">
-        <v>341.6105724621488</v>
+        <v>338.6156536003116</v>
       </c>
       <c r="O16" t="n">
-        <v>18.48271009517135</v>
+        <v>18.40151226395025</v>
       </c>
       <c r="P16" t="n">
-        <v>314.2059894456656</v>
+        <v>314.0994692333201</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25820,28 +26090,28 @@
         <v>0.0455</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.13022193072719</v>
+        <v>-0.1121365210521767</v>
       </c>
       <c r="J17" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002355674651867479</v>
+        <v>0.001782225975357266</v>
       </c>
       <c r="M17" t="n">
-        <v>15.28063945267926</v>
+        <v>15.21371823483358</v>
       </c>
       <c r="N17" t="n">
-        <v>356.8332584074454</v>
+        <v>353.678501892644</v>
       </c>
       <c r="O17" t="n">
-        <v>18.89003066189797</v>
+        <v>18.806342065714</v>
       </c>
       <c r="P17" t="n">
-        <v>313.8548438315579</v>
+        <v>313.6634082167964</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25898,28 +26168,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0818248152890864</v>
+        <v>-0.04873027762765336</v>
       </c>
       <c r="J18" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000898758201311356</v>
+        <v>0.0003237568339024</v>
       </c>
       <c r="M18" t="n">
-        <v>15.47317723173409</v>
+        <v>15.46302252747186</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9585430680147</v>
+        <v>358.1885281783991</v>
       </c>
       <c r="O18" t="n">
-        <v>18.97257344347399</v>
+        <v>18.92586928461673</v>
       </c>
       <c r="P18" t="n">
-        <v>310.5736190253332</v>
+        <v>310.2145952183364</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25976,28 +26246,28 @@
         <v>0.0532</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1783496286751102</v>
+        <v>0.2090282893777152</v>
       </c>
       <c r="J19" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004058206850710899</v>
+        <v>0.005660157276358935</v>
       </c>
       <c r="M19" t="n">
-        <v>15.79650981443844</v>
+        <v>15.7713786852076</v>
       </c>
       <c r="N19" t="n">
-        <v>375.4045651443117</v>
+        <v>373.0935378095782</v>
       </c>
       <c r="O19" t="n">
-        <v>19.37535974231993</v>
+        <v>19.31562936612675</v>
       </c>
       <c r="P19" t="n">
-        <v>307.7866201498354</v>
+        <v>307.454314197055</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26054,28 +26324,28 @@
         <v>0.0427</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1530462637728538</v>
+        <v>0.1676673199147733</v>
       </c>
       <c r="J20" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003228571440249683</v>
+        <v>0.003955322761334035</v>
       </c>
       <c r="M20" t="n">
-        <v>15.19443990302771</v>
+        <v>15.09472936323831</v>
       </c>
       <c r="N20" t="n">
-        <v>362.1226832735531</v>
+        <v>358.5113320051142</v>
       </c>
       <c r="O20" t="n">
-        <v>19.02952136217706</v>
+        <v>18.93439547503733</v>
       </c>
       <c r="P20" t="n">
-        <v>311.8511841161169</v>
+        <v>311.6977210857969</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26132,28 +26402,28 @@
         <v>0.0432</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05807700162820682</v>
+        <v>0.07569652970906858</v>
       </c>
       <c r="J21" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004737653577220335</v>
+        <v>0.000820669160744858</v>
       </c>
       <c r="M21" t="n">
-        <v>15.19221026727335</v>
+        <v>15.10996931980807</v>
       </c>
       <c r="N21" t="n">
-        <v>362.7041202439945</v>
+        <v>359.2048770770554</v>
       </c>
       <c r="O21" t="n">
-        <v>19.044792470489</v>
+        <v>18.9527010496408</v>
       </c>
       <c r="P21" t="n">
-        <v>319.4385542889132</v>
+        <v>319.2539822932468</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26210,28 +26480,28 @@
         <v>0.0511</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.09408836010896418</v>
+        <v>-0.06873019668231038</v>
       </c>
       <c r="J22" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001152701882844442</v>
+        <v>0.0006269043676137009</v>
       </c>
       <c r="M22" t="n">
-        <v>16.06434673447467</v>
+        <v>16.00876021917984</v>
       </c>
       <c r="N22" t="n">
-        <v>400.5336025449627</v>
+        <v>397.1234935582713</v>
       </c>
       <c r="O22" t="n">
-        <v>20.01333561765661</v>
+        <v>19.92795758622221</v>
       </c>
       <c r="P22" t="n">
-        <v>328.8416277885088</v>
+        <v>328.579502100532</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26288,28 +26558,28 @@
         <v>0.0576</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3562421569454918</v>
+        <v>-0.3296376574791908</v>
       </c>
       <c r="J23" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01441290002546691</v>
+        <v>0.01259990995331406</v>
       </c>
       <c r="M23" t="n">
-        <v>16.56473984950231</v>
+        <v>16.50424966600984</v>
       </c>
       <c r="N23" t="n">
-        <v>437.0804483260739</v>
+        <v>433.5637916754588</v>
       </c>
       <c r="O23" t="n">
-        <v>20.90646905448344</v>
+        <v>20.82219468921225</v>
       </c>
       <c r="P23" t="n">
-        <v>340.9924774157857</v>
+        <v>340.7133540804386</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26366,28 +26636,28 @@
         <v>0.0568</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2996026722955228</v>
+        <v>-0.2626768354487277</v>
       </c>
       <c r="J24" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01077851111380845</v>
+        <v>0.008447560392134679</v>
       </c>
       <c r="M24" t="n">
-        <v>15.96815755551532</v>
+        <v>15.95777608589942</v>
       </c>
       <c r="N24" t="n">
-        <v>408.7576423917181</v>
+        <v>406.6768586575015</v>
       </c>
       <c r="O24" t="n">
-        <v>20.21775562201992</v>
+        <v>20.16623065070668</v>
       </c>
       <c r="P24" t="n">
-        <v>351.5166067628432</v>
+        <v>351.1290499006948</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26444,28 +26714,28 @@
         <v>0.0541</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1770494490565662</v>
+        <v>-0.1284908950774587</v>
       </c>
       <c r="J25" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004563448197560382</v>
+        <v>0.002431234700019602</v>
       </c>
       <c r="M25" t="n">
-        <v>14.79921930959636</v>
+        <v>14.85635835718303</v>
       </c>
       <c r="N25" t="n">
-        <v>345.7627515085929</v>
+        <v>346.5498115765711</v>
       </c>
       <c r="O25" t="n">
-        <v>18.59469686519769</v>
+        <v>18.61584839797991</v>
       </c>
       <c r="P25" t="n">
-        <v>363.2162051364439</v>
+        <v>362.7106876177329</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -26522,28 +26792,28 @@
         <v>0.0536</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2484941129135438</v>
+        <v>-0.2012009166261632</v>
       </c>
       <c r="J26" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007948315810935136</v>
+        <v>0.005286426253505838</v>
       </c>
       <c r="M26" t="n">
-        <v>15.77791740023688</v>
+        <v>15.83259741012746</v>
       </c>
       <c r="N26" t="n">
-        <v>390.0463350353722</v>
+        <v>389.9641226619673</v>
       </c>
       <c r="O26" t="n">
-        <v>19.74959075614916</v>
+        <v>19.74750927742452</v>
       </c>
       <c r="P26" t="n">
-        <v>355.9468525920901</v>
+        <v>355.4533875001761</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -26600,28 +26870,28 @@
         <v>0.0645</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.4369723786436417</v>
+        <v>-0.3869985736648194</v>
       </c>
       <c r="J27" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0214933065560694</v>
+        <v>0.01712027383570403</v>
       </c>
       <c r="M27" t="n">
-        <v>16.58802513487555</v>
+        <v>16.65126363411048</v>
       </c>
       <c r="N27" t="n">
-        <v>442.6223929770474</v>
+        <v>442.6469096316685</v>
       </c>
       <c r="O27" t="n">
-        <v>21.0385929419495</v>
+        <v>21.03917559296629</v>
       </c>
       <c r="P27" t="n">
-        <v>350.7303540985765</v>
+        <v>350.2089703367603</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -26678,28 +26948,28 @@
         <v>0.0603</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5016117552696847</v>
+        <v>-0.4567325914570636</v>
       </c>
       <c r="J28" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02625797347382053</v>
+        <v>0.02214822655410453</v>
       </c>
       <c r="M28" t="n">
-        <v>16.99194302787058</v>
+        <v>17.00611723728102</v>
       </c>
       <c r="N28" t="n">
-        <v>466.1737839146591</v>
+        <v>465.2192308686239</v>
       </c>
       <c r="O28" t="n">
-        <v>21.59105796191236</v>
+        <v>21.5689413478878</v>
       </c>
       <c r="P28" t="n">
-        <v>345.4422696761638</v>
+        <v>344.9676708863676</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -26756,28 +27026,28 @@
         <v>0.0567</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4189960598081011</v>
+        <v>-0.3692257875370807</v>
       </c>
       <c r="J29" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02241373875735131</v>
+        <v>0.01767556541008242</v>
       </c>
       <c r="M29" t="n">
-        <v>15.610803990011</v>
+        <v>15.65577839521039</v>
       </c>
       <c r="N29" t="n">
-        <v>393.5850316913442</v>
+        <v>393.8791394904209</v>
       </c>
       <c r="O29" t="n">
-        <v>19.83897758684515</v>
+        <v>19.84638857551723</v>
       </c>
       <c r="P29" t="n">
-        <v>340.3281162525307</v>
+        <v>339.8126589807883</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -26834,28 +27104,28 @@
         <v>0.048</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5557375591360084</v>
+        <v>-0.5143145894483412</v>
       </c>
       <c r="J30" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K30" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03388589588715651</v>
+        <v>0.0295922145648041</v>
       </c>
       <c r="M30" t="n">
-        <v>16.63576930794079</v>
+        <v>16.61822600301132</v>
       </c>
       <c r="N30" t="n">
-        <v>454.5861692226193</v>
+        <v>452.7032437994662</v>
       </c>
       <c r="O30" t="n">
-        <v>21.32102645799726</v>
+        <v>21.27682410040244</v>
       </c>
       <c r="P30" t="n">
-        <v>339.2596079909408</v>
+        <v>338.8305085887237</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -26912,28 +27182,28 @@
         <v>0.0474</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.8507150944338336</v>
+        <v>-0.807631689733097</v>
       </c>
       <c r="J31" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06910886895577362</v>
+        <v>0.06360459760599046</v>
       </c>
       <c r="M31" t="n">
-        <v>18.86925074969552</v>
+        <v>18.83990925237494</v>
       </c>
       <c r="N31" t="n">
-        <v>524.9455394631367</v>
+        <v>522.4333619910713</v>
       </c>
       <c r="O31" t="n">
-        <v>22.9116900176119</v>
+        <v>22.85680121957294</v>
       </c>
       <c r="P31" t="n">
-        <v>339.8602569528075</v>
+        <v>339.4239146435295</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -26990,28 +27260,28 @@
         <v>0.0496</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.6530218414903389</v>
+        <v>-0.6302439540608284</v>
       </c>
       <c r="J32" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04037642843888578</v>
+        <v>0.03849324141466071</v>
       </c>
       <c r="M32" t="n">
-        <v>18.83250468055508</v>
+        <v>18.70619087282599</v>
       </c>
       <c r="N32" t="n">
-        <v>532.893598562795</v>
+        <v>527.2549194036159</v>
       </c>
       <c r="O32" t="n">
-        <v>23.08448826729315</v>
+        <v>22.96203212704868</v>
       </c>
       <c r="P32" t="n">
-        <v>335.6402967758719</v>
+        <v>335.4065738976763</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -27068,28 +27338,28 @@
         <v>0.0535</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7980531370010364</v>
+        <v>-0.7228505942347483</v>
       </c>
       <c r="J33" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05355819877108203</v>
+        <v>0.0451279287194869</v>
       </c>
       <c r="M33" t="n">
-        <v>19.30192723286574</v>
+        <v>19.30122842121907</v>
       </c>
       <c r="N33" t="n">
-        <v>578.3567703627875</v>
+        <v>578.7772495408578</v>
       </c>
       <c r="O33" t="n">
-        <v>24.04904926109944</v>
+        <v>24.05778978919007</v>
       </c>
       <c r="P33" t="n">
-        <v>333.7052323771338</v>
+        <v>332.9429519648754</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -27146,28 +27416,28 @@
         <v>0.0436</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.442063820415608</v>
+        <v>-1.329089654958445</v>
       </c>
       <c r="J34" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1105877087558849</v>
+        <v>0.09678235380067279</v>
       </c>
       <c r="M34" t="n">
-        <v>23.04621950487729</v>
+        <v>23.13398269062129</v>
       </c>
       <c r="N34" t="n">
-        <v>864.9629355052784</v>
+        <v>868.8478552265319</v>
       </c>
       <c r="O34" t="n">
-        <v>29.41025221764136</v>
+        <v>29.47622525403366</v>
       </c>
       <c r="P34" t="n">
-        <v>334.2672136402807</v>
+        <v>333.1263561805953</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -27224,28 +27494,28 @@
         <v>0.0427</v>
       </c>
       <c r="I35" t="n">
-        <v>-2.723045003655673</v>
+        <v>-2.578842898795056</v>
       </c>
       <c r="J35" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K35" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2099086457508769</v>
+        <v>0.1946263302981016</v>
       </c>
       <c r="M35" t="n">
-        <v>30.7117325416509</v>
+        <v>30.69226453356447</v>
       </c>
       <c r="N35" t="n">
-        <v>1457.498030297139</v>
+        <v>1466.090885438364</v>
       </c>
       <c r="O35" t="n">
-        <v>38.17719254079769</v>
+        <v>38.2895662738345</v>
       </c>
       <c r="P35" t="n">
-        <v>342.7605811128766</v>
+        <v>341.3232127412742</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -27302,28 +27572,28 @@
         <v>0.0428</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.097572000305383</v>
+        <v>-2.344253579722696</v>
       </c>
       <c r="J36" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K36" t="n">
         <v>123</v>
       </c>
       <c r="L36" t="n">
-        <v>0.113674776305028</v>
+        <v>0.1235521255628501</v>
       </c>
       <c r="M36" t="n">
-        <v>30.65795924425678</v>
+        <v>32.25528328819507</v>
       </c>
       <c r="N36" t="n">
-        <v>1691.602910801691</v>
+        <v>1924.194513116707</v>
       </c>
       <c r="O36" t="n">
-        <v>41.12910053480006</v>
+        <v>43.86564160156223</v>
       </c>
       <c r="P36" t="n">
-        <v>335.6136307890448</v>
+        <v>338.0140196610694</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -27380,28 +27650,28 @@
         <v>0.0692</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.50325840942408</v>
+        <v>-3.616446523147522</v>
       </c>
       <c r="J37" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K37" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1769013384624532</v>
+        <v>0.1876292851883946</v>
       </c>
       <c r="M37" t="n">
-        <v>37.50008583783457</v>
+        <v>38.05957152033591</v>
       </c>
       <c r="N37" t="n">
-        <v>2923.983930350202</v>
+        <v>2933.618863669151</v>
       </c>
       <c r="O37" t="n">
-        <v>54.07387474881195</v>
+        <v>54.16289194336979</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4323961059447</v>
+        <v>352.5286278335703</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -27458,28 +27728,28 @@
         <v>0.0609</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.6714533507459581</v>
+        <v>-0.9751106414316983</v>
       </c>
       <c r="J38" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K38" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L38" t="n">
-        <v>0.03570445776202635</v>
+        <v>0.06622344155816395</v>
       </c>
       <c r="M38" t="n">
-        <v>19.80256051932691</v>
+        <v>20.56267656088636</v>
       </c>
       <c r="N38" t="n">
-        <v>627.3118387612611</v>
+        <v>712.102416084421</v>
       </c>
       <c r="O38" t="n">
-        <v>25.04619409733266</v>
+        <v>26.68524716176376</v>
       </c>
       <c r="P38" t="n">
-        <v>328.5665041265992</v>
+        <v>331.3939070943237</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -27536,28 +27806,28 @@
         <v>0.037</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.013084275791927</v>
+        <v>-2.006443647366068</v>
       </c>
       <c r="J39" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K39" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1138263350008422</v>
+        <v>0.1153627692894085</v>
       </c>
       <c r="M39" t="n">
-        <v>31.29646781151171</v>
+        <v>30.99805440063281</v>
       </c>
       <c r="N39" t="n">
-        <v>1529.299445038948</v>
+        <v>1513.299564879102</v>
       </c>
       <c r="O39" t="n">
-        <v>39.10625838710408</v>
+        <v>38.90115120249145</v>
       </c>
       <c r="P39" t="n">
-        <v>344.7521176167193</v>
+        <v>344.6816790743408</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -27595,7 +27865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN199"/>
+  <dimension ref="A1:AN201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61314,14 +61584,22 @@
           <t>-36.13715692796221,175.428264581457</t>
         </is>
       </c>
-      <c r="AG198" t="inlineStr"/>
-      <c r="AH198" t="inlineStr"/>
-      <c r="AI198" t="inlineStr"/>
-      <c r="AJ198" t="inlineStr">
-        <is>
-          <t>-36.14019106170957,175.42914148208433</t>
-        </is>
-      </c>
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>-36.137767455299354,175.4287558234399</t>
+        </is>
+      </c>
+      <c r="AH198" t="inlineStr">
+        <is>
+          <t>-36.13840608322385,175.429194083734</t>
+        </is>
+      </c>
+      <c r="AI198" t="inlineStr">
+        <is>
+          <t>-36.13904466092039,175.4296287698519</t>
+        </is>
+      </c>
+      <c r="AJ198" t="inlineStr"/>
       <c r="AK198" t="inlineStr">
         <is>
           <t>-36.14093342937227,175.42938771284096</t>
@@ -61517,6 +61795,398 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>-36.116265676607014,175.42511692277105</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-36.116892422403744,175.42464042232578</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>-36.11756188610857,175.42429393457948</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-36.11824335565034,175.4239839995089</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>-36.11897830383036,175.4237131107822</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>-36.11973418270867,175.42340610221825</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-36.12047555031877,175.42313376097746</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>-36.121195239129754,175.42301916383565</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>-36.12192218910427,175.42298328819584</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>-36.12264995197255,175.42295629052003</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>-36.12337694355046,175.42292101138403</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>-36.12410490545716,175.42289631581156</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>-36.1248727536629,175.42294124184352</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>-36.12564022237241,175.42299490821662</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>-36.12639155435533,175.4230550294388</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>-36.12709910849426,175.42325369387785</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>-36.127786672634286,175.42355622997437</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>-36.12849824211824,175.42373395699568</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>-36.12921741965,175.42387210511225</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>-36.129908810613,175.42415465068513</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>-36.130592686591974,175.424476224628</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>-36.1312968537349,175.42469229512008</t>
+        </is>
+      </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>-36.131967931067734,175.4250803272824</t>
+        </is>
+      </c>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>-36.13261757276745,175.42547445636245</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>-36.133282655772874,175.4257906253125</t>
+        </is>
+      </c>
+      <c r="AA200" t="inlineStr">
+        <is>
+          <t>-36.133955463083524,175.42614440620338</t>
+        </is>
+      </c>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>-36.13464501173314,175.42646313788575</t>
+        </is>
+      </c>
+      <c r="AC200" t="inlineStr">
+        <is>
+          <t>-36.13526300846915,175.42693394888946</t>
+        </is>
+      </c>
+      <c r="AD200" t="inlineStr">
+        <is>
+          <t>-36.1359334783056,175.42729321230968</t>
+        </is>
+      </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>-36.1365896232823,175.4276829136051</t>
+        </is>
+      </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>-36.137263381627285,175.4280446439774</t>
+        </is>
+      </c>
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t>-36.13793253019959,175.42844074348238</t>
+        </is>
+      </c>
+      <c r="AH200" t="inlineStr">
+        <is>
+          <t>-36.13857251654298,175.428891923681</t>
+        </is>
+      </c>
+      <c r="AI200" t="inlineStr">
+        <is>
+          <t>-36.139202945346405,175.42934140369638</t>
+        </is>
+      </c>
+      <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr">
+        <is>
+          <t>-36.14140246889387,175.43013017732693</t>
+        </is>
+      </c>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>-36.11625438689424,175.4250825668529</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-36.11690926689885,175.42469168208876</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>-36.11758184253578,175.42435466449678</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-36.118266533008004,175.4240545314231</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>-36.1189803339845,175.42372084798916</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>-36.11973572000668,175.4234167318607</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>-36.1204936466207,175.42332977194278</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>-36.121206455589565,175.42314065569022</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>-36.12192306708477,175.42299279817323</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>-36.12265007690345,175.42295764374558</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>-36.123379052353116,175.42294385381177</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>-36.12412582000886,175.42312286629362</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>-36.12487225006598,175.42303954751202</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>-36.125630225934664,175.42306243146064</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>-36.12636063483304,175.4232157435426</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>-36.127080042834294,175.42335279404705</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>-36.12779072698129,175.42353515615483</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>-36.12848603277871,175.42379741914348</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>-36.12919868624739,175.42396947863082</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>-36.12989641858547,175.42421906254856</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>-36.13059251563376,175.42447711324024</t>
+        </is>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>-36.13128134259704,175.4247729193282</t>
+        </is>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>-36.131961027891066,175.4251162085699</t>
+        </is>
+      </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>-36.13260366856416,175.42551811028014</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>-36.13325687486902,175.4258460536734</t>
+        </is>
+      </c>
+      <c r="AA201" t="inlineStr">
+        <is>
+          <t>-36.13392688547312,175.42620515035244</t>
+        </is>
+      </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>-36.13458678781614,175.4265868981904</t>
+        </is>
+      </c>
+      <c r="AC201" t="inlineStr">
+        <is>
+          <t>-36.135246644210696,175.42696873266553</t>
+        </is>
+      </c>
+      <c r="AD201" t="inlineStr">
+        <is>
+          <t>-36.13591172450277,175.42733945220127</t>
+        </is>
+      </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>-36.13657651368415,175.42771077943777</t>
+        </is>
+      </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>-36.137247765779435,175.428076907024</t>
+        </is>
+      </c>
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>-36.13788676123863,175.42852810339787</t>
+        </is>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>-36.138532983632906,175.42896369600123</t>
+        </is>
+      </c>
+      <c r="AI201" t="inlineStr">
+        <is>
+          <t>-36.13933262976748,175.42910595923388</t>
+        </is>
+      </c>
+      <c r="AJ201" t="inlineStr">
+        <is>
+          <t>-36.14084667838235,175.42795115805717</t>
+        </is>
+      </c>
+      <c r="AK201" t="inlineStr">
+        <is>
+          <t>-36.140986127628935,175.4292920357946</t>
+        </is>
+      </c>
+      <c r="AL201" t="inlineStr">
+        <is>
+          <t>-36.14137330122226,175.43018313260905</t>
+        </is>
+      </c>
+      <c r="AM201" t="inlineStr">
+        <is>
+          <t>-36.14169535789632,175.43119243764875</t>
+        </is>
+      </c>
+      <c r="AN201" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0114/nzd0114.xlsx
+++ b/data/nzd0114/nzd0114.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37478,7 +37478,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-36.11699017427593,175.42493789393166</t>
+          <t>-36.11699017427592,175.42493789393166</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>-36.12563414040179,175.4230359903221</t>
+          <t>-36.1256341404018,175.4230359903221</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -39183,7 +39183,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>-36.12337548674219,175.42290523134994</t>
+          <t>-36.1233754867422,175.42290523134994</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -53610,7 +53610,7 @@
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>-36.131402872810085,175.42414121800076</t>
+          <t>-36.13140287281009,175.42414121800076</t>
         </is>
       </c>
       <c r="X149" t="inlineStr">
@@ -54012,7 +54012,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-36.116797916921364,175.42435283279752</t>
+          <t>-36.11679791692137,175.42435283279752</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -59384,7 +59384,7 @@
       </c>
       <c r="AG185" t="inlineStr">
         <is>
-          <t>-36.13795441519418,175.4283989711814</t>
+          <t>-36.13795441519417,175.4283989711814</t>
         </is>
       </c>
       <c r="AH185" t="inlineStr">

--- a/data/nzd0114/nzd0114.xlsx
+++ b/data/nzd0114/nzd0114.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN201"/>
+  <dimension ref="A1:AN203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22558,9 +22558,7 @@
       </c>
       <c r="AJ200" t="inlineStr"/>
       <c r="AK200" t="inlineStr"/>
-      <c r="AL200" t="n">
-        <v>234.5911111111111</v>
-      </c>
+      <c r="AL200" t="inlineStr"/>
       <c r="AM200" t="inlineStr"/>
       <c r="AN200" t="inlineStr">
         <is>
@@ -22676,19 +22674,251 @@
       <c r="AI201" t="n">
         <v>284.09</v>
       </c>
-      <c r="AJ201" t="n">
-        <v>104.7828571428571</v>
-      </c>
+      <c r="AJ201" t="inlineStr"/>
       <c r="AK201" t="n">
         <v>197.0390909090909</v>
       </c>
-      <c r="AL201" t="n">
-        <v>240.3533333333333</v>
-      </c>
+      <c r="AL201" t="inlineStr"/>
       <c r="AM201" t="n">
         <v>296.53</v>
       </c>
       <c r="AN201" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="n">
+        <v>288.14</v>
+      </c>
+      <c r="D202" t="n">
+        <v>291.33</v>
+      </c>
+      <c r="E202" t="n">
+        <v>294.7766666666667</v>
+      </c>
+      <c r="F202" t="n">
+        <v>298.0766666666667</v>
+      </c>
+      <c r="G202" t="n">
+        <v>290.4866666666667</v>
+      </c>
+      <c r="H202" t="n">
+        <v>273.45</v>
+      </c>
+      <c r="I202" t="n">
+        <v>263.38</v>
+      </c>
+      <c r="J202" t="n">
+        <v>265.2709090909091</v>
+      </c>
+      <c r="K202" t="n">
+        <v>265.0284210526316</v>
+      </c>
+      <c r="L202" t="n">
+        <v>301.91</v>
+      </c>
+      <c r="M202" t="n">
+        <v>307.09</v>
+      </c>
+      <c r="N202" t="n">
+        <v>328.1271428571428</v>
+      </c>
+      <c r="O202" t="n">
+        <v>316.69</v>
+      </c>
+      <c r="P202" t="n">
+        <v>312.5171428571429</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>310.98</v>
+      </c>
+      <c r="R202" t="n">
+        <v>313.51</v>
+      </c>
+      <c r="S202" t="n">
+        <v>308.8166666666667</v>
+      </c>
+      <c r="T202" t="n">
+        <v>312.28</v>
+      </c>
+      <c r="U202" t="n">
+        <v>321.41</v>
+      </c>
+      <c r="V202" t="n">
+        <v>327.5766666666667</v>
+      </c>
+      <c r="W202" t="n">
+        <v>328.42</v>
+      </c>
+      <c r="X202" t="n">
+        <v>340.61</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>348.4566666666667</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>332.9166666666667</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>336.4709090909091</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>334.27</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>338.58</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>315.8966666666667</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>312.37</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>302.6166666666667</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>298.5866666666667</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>287.59</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>290.85</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>288.4471428571428</v>
+      </c>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="n">
+        <v>285.0466666666667</v>
+      </c>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>271.3022222222222</v>
+      </c>
+      <c r="C203" t="n">
+        <v>268.54</v>
+      </c>
+      <c r="D203" t="n">
+        <v>269.78</v>
+      </c>
+      <c r="E203" t="n">
+        <v>270.5422222222222</v>
+      </c>
+      <c r="F203" t="n">
+        <v>276.3222222222222</v>
+      </c>
+      <c r="G203" t="n">
+        <v>257.3522222222222</v>
+      </c>
+      <c r="H203" t="n">
+        <v>276.6533333333333</v>
+      </c>
+      <c r="I203" t="n">
+        <v>276.54</v>
+      </c>
+      <c r="J203" t="n">
+        <v>269.4018181818182</v>
+      </c>
+      <c r="K203" t="n">
+        <v>279.2326315789473</v>
+      </c>
+      <c r="L203" t="n">
+        <v>290.23</v>
+      </c>
+      <c r="M203" t="n">
+        <v>310.78</v>
+      </c>
+      <c r="N203" t="n">
+        <v>306.6414285714285</v>
+      </c>
+      <c r="O203" t="n">
+        <v>317.74</v>
+      </c>
+      <c r="P203" t="n">
+        <v>310.8414285714285</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>307.6</v>
+      </c>
+      <c r="R203" t="n">
+        <v>289.93</v>
+      </c>
+      <c r="S203" t="n">
+        <v>300.0022222222222</v>
+      </c>
+      <c r="T203" t="n">
+        <v>305.08</v>
+      </c>
+      <c r="U203" t="n">
+        <v>301.49</v>
+      </c>
+      <c r="V203" t="n">
+        <v>313.5322222222222</v>
+      </c>
+      <c r="W203" t="n">
+        <v>319.26</v>
+      </c>
+      <c r="X203" t="n">
+        <v>332.84</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>343.0122222222222</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>332.4122222222222</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>321.7918181818182</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>320.42</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>315.91</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>309.1522222222222</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>307.24</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>297.2822222222222</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>280.7522222222222</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="AI203" t="inlineStr"/>
+      <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22705,7 +22935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24753,6 +24983,26 @@
       </c>
       <c r="B204" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -24926,28 +25176,28 @@
         <v>0.0537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3193219544321633</v>
+        <v>0.3003655152210544</v>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K2" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02692522488106397</v>
+        <v>0.02400507768788851</v>
       </c>
       <c r="M2" t="n">
-        <v>11.26144543404328</v>
+        <v>11.29051069562294</v>
       </c>
       <c r="N2" t="n">
-        <v>191.9177109233158</v>
+        <v>192.2785203697286</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8534367910391</v>
+        <v>13.86645305655807</v>
       </c>
       <c r="P2" t="n">
-        <v>279.0456538647864</v>
+        <v>279.2453038047453</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25004,28 +25254,28 @@
         <v>0.0433</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4934219834537403</v>
+        <v>0.4752507698716351</v>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K3" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04950130862201885</v>
+        <v>0.04685338763911751</v>
       </c>
       <c r="M3" t="n">
-        <v>12.879496559518</v>
+        <v>12.85771023303853</v>
       </c>
       <c r="N3" t="n">
-        <v>239.9317159267279</v>
+        <v>238.9300592651671</v>
       </c>
       <c r="O3" t="n">
-        <v>15.48972936906026</v>
+        <v>15.45736262320216</v>
       </c>
       <c r="P3" t="n">
-        <v>273.2943586216504</v>
+        <v>273.4865793993471</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25082,28 +25332,28 @@
         <v>0.0483</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4737984826568071</v>
+        <v>0.4595733563195647</v>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K4" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04278536967465196</v>
+        <v>0.04099558044239238</v>
       </c>
       <c r="M4" t="n">
-        <v>13.25897725656804</v>
+        <v>13.23748666826852</v>
       </c>
       <c r="N4" t="n">
-        <v>257.806542610406</v>
+        <v>256.5820986681567</v>
       </c>
       <c r="O4" t="n">
-        <v>16.05635520939936</v>
+        <v>16.01818025457813</v>
       </c>
       <c r="P4" t="n">
-        <v>274.4867808014582</v>
+        <v>274.6397951902132</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25160,28 +25410,28 @@
         <v>0.0484</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3605726307039802</v>
+        <v>0.3425791363347181</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K5" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02492635852626868</v>
+        <v>0.02285128716201812</v>
       </c>
       <c r="M5" t="n">
-        <v>13.25504166635139</v>
+        <v>13.24345450751239</v>
       </c>
       <c r="N5" t="n">
-        <v>259.4569075437351</v>
+        <v>258.8709761221432</v>
       </c>
       <c r="O5" t="n">
-        <v>16.10766611100861</v>
+        <v>16.08946786323722</v>
       </c>
       <c r="P5" t="n">
-        <v>281.3173890248289</v>
+        <v>281.51256328123</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25238,28 +25488,28 @@
         <v>0.0551</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1693221472560415</v>
+        <v>0.1520888981545321</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K6" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005199224467472119</v>
+        <v>0.004269326482012614</v>
       </c>
       <c r="M6" t="n">
-        <v>13.75174636543338</v>
+        <v>13.72496665304064</v>
       </c>
       <c r="N6" t="n">
-        <v>285.1286517297414</v>
+        <v>283.7473797731305</v>
       </c>
       <c r="O6" t="n">
-        <v>16.88575292161239</v>
+        <v>16.84480275257418</v>
       </c>
       <c r="P6" t="n">
-        <v>290.2036730659327</v>
+        <v>290.3875925172854</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25316,28 +25566,28 @@
         <v>0.0542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4373225926765051</v>
+        <v>0.390867944880588</v>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K7" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02420091422291737</v>
+        <v>0.01951865610865788</v>
       </c>
       <c r="M7" t="n">
-        <v>16.20715758841078</v>
+        <v>16.24838586429201</v>
       </c>
       <c r="N7" t="n">
-        <v>388.9798487604955</v>
+        <v>391.9616288210661</v>
       </c>
       <c r="O7" t="n">
-        <v>19.72257206249975</v>
+        <v>19.79802083090798</v>
       </c>
       <c r="P7" t="n">
-        <v>281.8227100689477</v>
+        <v>282.3266493579014</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25394,28 +25644,28 @@
         <v>0.033</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4193432145655753</v>
+        <v>0.3843307815326394</v>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K8" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02421822279935182</v>
+        <v>0.02075498057890901</v>
       </c>
       <c r="M8" t="n">
-        <v>15.10703547551712</v>
+        <v>15.10633170936274</v>
       </c>
       <c r="N8" t="n">
-        <v>367.1283101132054</v>
+        <v>365.420589394408</v>
       </c>
       <c r="O8" t="n">
-        <v>19.16059263470745</v>
+        <v>19.11597733296438</v>
       </c>
       <c r="P8" t="n">
-        <v>279.3323364007386</v>
+        <v>279.7059347614631</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25472,28 +25722,28 @@
         <v>0.0456</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2101026061794689</v>
+        <v>0.1718510959296968</v>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K9" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008408354728303702</v>
+        <v>0.005696044082794116</v>
       </c>
       <c r="M9" t="n">
-        <v>13.26369458232746</v>
+        <v>13.29486687406225</v>
       </c>
       <c r="N9" t="n">
-        <v>279.0870760034092</v>
+        <v>279.5336794193203</v>
       </c>
       <c r="O9" t="n">
-        <v>16.70589943712727</v>
+        <v>16.71926073184219</v>
       </c>
       <c r="P9" t="n">
-        <v>281.3090441895695</v>
+        <v>281.7100367357735</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25550,28 +25800,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05378653372111518</v>
+        <v>-0.09418406052715411</v>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K10" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000545888661399152</v>
+        <v>0.001691717516767444</v>
       </c>
       <c r="M10" t="n">
-        <v>13.18623966811739</v>
+        <v>13.21463092634236</v>
       </c>
       <c r="N10" t="n">
-        <v>274.8433629359809</v>
+        <v>274.9692497516912</v>
       </c>
       <c r="O10" t="n">
-        <v>16.57840049389509</v>
+        <v>16.58219677098578</v>
       </c>
       <c r="P10" t="n">
-        <v>285.8033131128621</v>
+        <v>286.2334835876194</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25622,28 +25872,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.04249034127573481</v>
+        <v>0.002979310320600414</v>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K11" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003531901645558166</v>
+        <v>1.75578114058883e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>13.30139458306798</v>
+        <v>13.33347697727479</v>
       </c>
       <c r="N11" t="n">
-        <v>262.3152710535915</v>
+        <v>262.9592601955174</v>
       </c>
       <c r="O11" t="n">
-        <v>16.19614988364801</v>
+        <v>16.21601862959948</v>
       </c>
       <c r="P11" t="n">
-        <v>287.6325819328127</v>
+        <v>288.0511425453404</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25700,28 +25950,28 @@
         <v>0.0438</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03940877212752784</v>
+        <v>0.03592553406807198</v>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K12" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002639454156426746</v>
+        <v>0.0002245180418740667</v>
       </c>
       <c r="M12" t="n">
-        <v>14.46265256165746</v>
+        <v>14.36121213086539</v>
       </c>
       <c r="N12" t="n">
-        <v>310.2585873089538</v>
+        <v>306.9968509190816</v>
       </c>
       <c r="O12" t="n">
-        <v>17.61415871703653</v>
+        <v>17.52132560393424</v>
       </c>
       <c r="P12" t="n">
-        <v>296.5444639681229</v>
+        <v>296.5808790972558</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25778,28 +26028,28 @@
         <v>0.0273</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3034698434298762</v>
+        <v>0.2930149053878399</v>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K13" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01116907252019161</v>
+        <v>0.01066518516935944</v>
       </c>
       <c r="M13" t="n">
-        <v>15.98845525269167</v>
+        <v>15.85310538644772</v>
       </c>
       <c r="N13" t="n">
-        <v>423.8314483578051</v>
+        <v>419.0321741380619</v>
       </c>
       <c r="O13" t="n">
-        <v>20.58716707946494</v>
+        <v>20.47027538012281</v>
       </c>
       <c r="P13" t="n">
-        <v>305.574582396764</v>
+        <v>305.68562880683</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25856,28 +26106,28 @@
         <v>0.0405</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1309415121839165</v>
+        <v>0.1083775032670834</v>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K14" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002267372087809916</v>
+        <v>0.001581844788601683</v>
       </c>
       <c r="M14" t="n">
-        <v>15.58422212032363</v>
+        <v>15.50792855979011</v>
       </c>
       <c r="N14" t="n">
-        <v>384.1412976022587</v>
+        <v>382.0987437131761</v>
       </c>
       <c r="O14" t="n">
-        <v>19.59952289220987</v>
+        <v>19.54734620640807</v>
       </c>
       <c r="P14" t="n">
-        <v>323.8036441052724</v>
+        <v>324.0458032606589</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25934,28 +26184,28 @@
         <v>0.057</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09145190107410081</v>
+        <v>0.07613122813939704</v>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K15" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001379865047870021</v>
+        <v>0.0009772832105092721</v>
       </c>
       <c r="M15" t="n">
-        <v>14.25854063256484</v>
+        <v>14.15725075789932</v>
       </c>
       <c r="N15" t="n">
-        <v>308.9414713414724</v>
+        <v>305.9932154901364</v>
       </c>
       <c r="O15" t="n">
-        <v>17.57673096288023</v>
+        <v>17.49266176115392</v>
       </c>
       <c r="P15" t="n">
-        <v>321.7605750800744</v>
+        <v>321.924716081163</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26012,28 +26262,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09776639990062444</v>
+        <v>0.08669200230556681</v>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001401732687106194</v>
+        <v>0.001127309826667533</v>
       </c>
       <c r="M16" t="n">
-        <v>14.51178925301195</v>
+        <v>14.40275194470201</v>
       </c>
       <c r="N16" t="n">
-        <v>338.6156536003116</v>
+        <v>335.1250846773161</v>
       </c>
       <c r="O16" t="n">
-        <v>18.40151226395025</v>
+        <v>18.30642195179921</v>
       </c>
       <c r="P16" t="n">
-        <v>314.0994692333201</v>
+        <v>314.219928808204</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26090,28 +26340,28 @@
         <v>0.0455</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1121365210521767</v>
+        <v>-0.115462975991857</v>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K17" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001782225975357266</v>
+        <v>0.001933884186785528</v>
       </c>
       <c r="M17" t="n">
-        <v>15.21371823483358</v>
+        <v>15.05602078440979</v>
       </c>
       <c r="N17" t="n">
-        <v>353.678501892644</v>
+        <v>349.6926319303938</v>
       </c>
       <c r="O17" t="n">
-        <v>18.806342065714</v>
+        <v>18.70007037233801</v>
       </c>
       <c r="P17" t="n">
-        <v>313.6634082167964</v>
+        <v>313.6994535939764</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26168,28 +26418,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04873027762765336</v>
+        <v>-0.06537466567674842</v>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K18" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003237568339024</v>
+        <v>0.0005924873479387083</v>
       </c>
       <c r="M18" t="n">
-        <v>15.46302252747186</v>
+        <v>15.42046782524632</v>
       </c>
       <c r="N18" t="n">
-        <v>358.1885281783991</v>
+        <v>356.2379740512466</v>
       </c>
       <c r="O18" t="n">
-        <v>18.92586928461673</v>
+        <v>18.87426751032332</v>
       </c>
       <c r="P18" t="n">
-        <v>310.2145952183364</v>
+        <v>310.3997011981754</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26246,28 +26496,28 @@
         <v>0.0532</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2090282893777152</v>
+        <v>0.1891441515181808</v>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K19" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005660157276358935</v>
+        <v>0.004737455324561823</v>
       </c>
       <c r="M19" t="n">
-        <v>15.7713786852076</v>
+        <v>15.67970873491986</v>
       </c>
       <c r="N19" t="n">
-        <v>373.0935378095782</v>
+        <v>369.786852372859</v>
       </c>
       <c r="O19" t="n">
-        <v>19.31562936612675</v>
+        <v>19.22984275476164</v>
       </c>
       <c r="P19" t="n">
-        <v>307.454314197055</v>
+        <v>307.6747591703937</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26324,28 +26574,28 @@
         <v>0.0427</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1676673199147733</v>
+        <v>0.1504023651246861</v>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K20" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003955322761334035</v>
+        <v>0.003256751172743932</v>
       </c>
       <c r="M20" t="n">
-        <v>15.09472936323831</v>
+        <v>14.99404738904431</v>
       </c>
       <c r="N20" t="n">
-        <v>358.5113320051142</v>
+        <v>355.0626235519877</v>
       </c>
       <c r="O20" t="n">
-        <v>18.93439547503733</v>
+        <v>18.84310546465172</v>
       </c>
       <c r="P20" t="n">
-        <v>311.6977210857969</v>
+        <v>311.8831108315588</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26402,28 +26652,28 @@
         <v>0.0432</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07569652970906858</v>
+        <v>0.05349192470388194</v>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K21" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000820669160744858</v>
+        <v>0.0004170313588300889</v>
       </c>
       <c r="M21" t="n">
-        <v>15.10996931980807</v>
+        <v>15.04383959982747</v>
       </c>
       <c r="N21" t="n">
-        <v>359.2048770770554</v>
+        <v>357.2301791022387</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9527010496408</v>
+        <v>18.90053383114453</v>
       </c>
       <c r="P21" t="n">
-        <v>319.2539822932468</v>
+        <v>319.4924182016285</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26480,28 +26730,28 @@
         <v>0.0511</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.06873019668231038</v>
+        <v>-0.0830063066750662</v>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K22" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006269043676137009</v>
+        <v>0.0009333606077533974</v>
       </c>
       <c r="M22" t="n">
-        <v>16.00876021917984</v>
+        <v>15.89821778224198</v>
       </c>
       <c r="N22" t="n">
-        <v>397.1234935582713</v>
+        <v>393.3629068571471</v>
       </c>
       <c r="O22" t="n">
-        <v>19.92795758622221</v>
+        <v>19.83337860419014</v>
       </c>
       <c r="P22" t="n">
-        <v>328.579502100532</v>
+        <v>328.7310171784555</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26558,28 +26808,28 @@
         <v>0.0576</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3296376574791908</v>
+        <v>-0.3490063980752452</v>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K23" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01259990995331406</v>
+        <v>0.0144084501838615</v>
       </c>
       <c r="M23" t="n">
-        <v>16.50424966600984</v>
+        <v>16.40441898435222</v>
       </c>
       <c r="N23" t="n">
-        <v>433.5637916754588</v>
+        <v>429.4697216063627</v>
       </c>
       <c r="O23" t="n">
-        <v>20.82219468921225</v>
+        <v>20.72365126145397</v>
       </c>
       <c r="P23" t="n">
-        <v>340.7133540804386</v>
+        <v>340.9214723454915</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26636,28 +26886,28 @@
         <v>0.0568</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2626768354487277</v>
+        <v>-0.2809107097584154</v>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K24" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008447560392134679</v>
+        <v>0.00987372779433382</v>
       </c>
       <c r="M24" t="n">
-        <v>15.95777608589942</v>
+        <v>15.85744889414242</v>
       </c>
       <c r="N24" t="n">
-        <v>406.6768586575015</v>
+        <v>402.6744398354389</v>
       </c>
       <c r="O24" t="n">
-        <v>20.16623065070668</v>
+        <v>20.06674960813133</v>
       </c>
       <c r="P24" t="n">
-        <v>351.1290499006948</v>
+        <v>351.3249257584541</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26714,28 +26964,28 @@
         <v>0.0541</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1284908950774587</v>
+        <v>-0.1611922377572647</v>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K25" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002431234700019602</v>
+        <v>0.003892331034533014</v>
       </c>
       <c r="M25" t="n">
-        <v>14.85635835718303</v>
+        <v>14.84394621830217</v>
       </c>
       <c r="N25" t="n">
-        <v>346.5498115765711</v>
+        <v>344.6112893935451</v>
       </c>
       <c r="O25" t="n">
-        <v>18.61584839797991</v>
+        <v>18.56370893419591</v>
       </c>
       <c r="P25" t="n">
-        <v>362.7106876177329</v>
+        <v>363.05933110348</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -26792,28 +27042,28 @@
         <v>0.0536</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2012009166261632</v>
+        <v>-0.2438093796895862</v>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K26" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005286426253505838</v>
+        <v>0.007866220880131225</v>
       </c>
       <c r="M26" t="n">
-        <v>15.83259741012746</v>
+        <v>15.84174873134599</v>
       </c>
       <c r="N26" t="n">
-        <v>389.9641226619673</v>
+        <v>388.8181785020249</v>
       </c>
       <c r="O26" t="n">
-        <v>19.74750927742452</v>
+        <v>19.71847302663228</v>
       </c>
       <c r="P26" t="n">
-        <v>355.4533875001761</v>
+        <v>355.9087188153024</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -26870,28 +27120,28 @@
         <v>0.0645</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.3869985736648194</v>
+        <v>-0.4133191215942009</v>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K27" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01712027383570403</v>
+        <v>0.01986660479196767</v>
       </c>
       <c r="M27" t="n">
-        <v>16.65126363411048</v>
+        <v>16.57478501493162</v>
       </c>
       <c r="N27" t="n">
-        <v>442.6469096316685</v>
+        <v>439.313912422061</v>
       </c>
       <c r="O27" t="n">
-        <v>21.03917559296629</v>
+        <v>20.95981661231942</v>
       </c>
       <c r="P27" t="n">
-        <v>350.2089703367603</v>
+        <v>350.4904273041108</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -26948,28 +27198,28 @@
         <v>0.0603</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.4567325914570636</v>
+        <v>-0.4705596351612388</v>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K28" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02214822655410453</v>
+        <v>0.02400034685854713</v>
       </c>
       <c r="M28" t="n">
-        <v>17.00611723728102</v>
+        <v>16.88283727203527</v>
       </c>
       <c r="N28" t="n">
-        <v>465.2192308686239</v>
+        <v>460.5201503002068</v>
       </c>
       <c r="O28" t="n">
-        <v>21.5689413478878</v>
+        <v>21.45973322994037</v>
       </c>
       <c r="P28" t="n">
-        <v>344.9676708863676</v>
+        <v>345.1174783031533</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -27026,28 +27276,28 @@
         <v>0.0567</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.3692257875370807</v>
+        <v>-0.3765026374715045</v>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K29" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01767556541008242</v>
+        <v>0.01874805383859512</v>
       </c>
       <c r="M29" t="n">
-        <v>15.65577839521039</v>
+        <v>15.60401127518307</v>
       </c>
       <c r="N29" t="n">
-        <v>393.8791394904209</v>
+        <v>390.6472020695385</v>
       </c>
       <c r="O29" t="n">
-        <v>19.84638857551723</v>
+        <v>19.76479704093969</v>
       </c>
       <c r="P29" t="n">
-        <v>339.8126589807883</v>
+        <v>339.8900509885045</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -27104,28 +27354,28 @@
         <v>0.048</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5143145894483412</v>
+        <v>-0.5451794864433149</v>
       </c>
       <c r="J30" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K30" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0295922145648041</v>
+        <v>0.03377449487049078</v>
       </c>
       <c r="M30" t="n">
-        <v>16.61822600301132</v>
+        <v>16.5883484845833</v>
       </c>
       <c r="N30" t="n">
-        <v>452.7032437994662</v>
+        <v>449.2279191752663</v>
       </c>
       <c r="O30" t="n">
-        <v>21.27682410040244</v>
+        <v>21.19499750354471</v>
       </c>
       <c r="P30" t="n">
-        <v>338.8305085887237</v>
+        <v>339.1583125977951</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -27182,28 +27432,28 @@
         <v>0.0474</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.807631689733097</v>
+        <v>-0.8280549768059747</v>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K31" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06360459760599046</v>
+        <v>0.06806379195417933</v>
       </c>
       <c r="M31" t="n">
-        <v>18.83990925237494</v>
+        <v>18.71602758481404</v>
       </c>
       <c r="N31" t="n">
-        <v>522.4333619910713</v>
+        <v>516.7428638036703</v>
       </c>
       <c r="O31" t="n">
-        <v>22.85680121957294</v>
+        <v>22.73197888006388</v>
       </c>
       <c r="P31" t="n">
-        <v>339.4239146435295</v>
+        <v>339.6363473419005</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -27260,28 +27510,28 @@
         <v>0.0496</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.6302439540608284</v>
+        <v>-0.6757801124369144</v>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K32" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03849324141466071</v>
+        <v>0.04468550663531012</v>
       </c>
       <c r="M32" t="n">
-        <v>18.70619087282599</v>
+        <v>18.71946593394661</v>
       </c>
       <c r="N32" t="n">
-        <v>527.2549194036159</v>
+        <v>525.1146119799977</v>
       </c>
       <c r="O32" t="n">
-        <v>22.96203212704868</v>
+        <v>22.91537937674168</v>
       </c>
       <c r="P32" t="n">
-        <v>335.4065738976763</v>
+        <v>335.8858792026073</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -27338,28 +27588,28 @@
         <v>0.0535</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7228505942347483</v>
+        <v>-0.7840411443144317</v>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K33" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0451279287194869</v>
+        <v>0.05328010807666672</v>
       </c>
       <c r="M33" t="n">
-        <v>19.30122842121907</v>
+        <v>19.37448117418509</v>
       </c>
       <c r="N33" t="n">
-        <v>578.7772495408578</v>
+        <v>579.7683397651876</v>
       </c>
       <c r="O33" t="n">
-        <v>24.05778978919007</v>
+        <v>24.07837909339388</v>
       </c>
       <c r="P33" t="n">
-        <v>332.9429519648754</v>
+        <v>333.5832238145611</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -27416,28 +27666,28 @@
         <v>0.0436</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.329089654958445</v>
+        <v>-1.390756305074088</v>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K34" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L34" t="n">
-        <v>0.09678235380067279</v>
+        <v>0.1065117085931085</v>
       </c>
       <c r="M34" t="n">
-        <v>23.13398269062129</v>
+        <v>23.16281832718452</v>
       </c>
       <c r="N34" t="n">
-        <v>868.8478552265319</v>
+        <v>867.2381157176758</v>
       </c>
       <c r="O34" t="n">
-        <v>29.47622525403366</v>
+        <v>29.4489068679582</v>
       </c>
       <c r="P34" t="n">
-        <v>333.1263561805953</v>
+        <v>333.7686418697461</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -27494,28 +27744,28 @@
         <v>0.0427</v>
       </c>
       <c r="I35" t="n">
-        <v>-2.578842898795056</v>
+        <v>-2.557139479938261</v>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K35" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1946263302981016</v>
+        <v>0.1940117770665408</v>
       </c>
       <c r="M35" t="n">
-        <v>30.69226453356447</v>
+        <v>30.57166113465543</v>
       </c>
       <c r="N35" t="n">
-        <v>1466.090885438364</v>
+        <v>1458.08587698665</v>
       </c>
       <c r="O35" t="n">
-        <v>38.2895662738345</v>
+        <v>38.18489068973028</v>
       </c>
       <c r="P35" t="n">
-        <v>341.3232127412742</v>
+        <v>341.1000408606072</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -27572,28 +27822,28 @@
         <v>0.0428</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.344253579722696</v>
+        <v>-1.993783019896365</v>
       </c>
       <c r="J36" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K36" t="n">
         <v>123</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1235521255628501</v>
+        <v>0.1051776452641915</v>
       </c>
       <c r="M36" t="n">
-        <v>32.25528328819507</v>
+        <v>30.0861362059336</v>
       </c>
       <c r="N36" t="n">
-        <v>1924.194513116707</v>
+        <v>1672.264902518434</v>
       </c>
       <c r="O36" t="n">
-        <v>43.86564160156223</v>
+        <v>40.89333567365756</v>
       </c>
       <c r="P36" t="n">
-        <v>338.0140196610694</v>
+        <v>334.6146343848137</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -27653,7 +27903,7 @@
         <v>-3.616446523147522</v>
       </c>
       <c r="J37" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K37" t="n">
         <v>124</v>
@@ -27728,28 +27978,28 @@
         <v>0.0609</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.9751106414316983</v>
+        <v>-0.7290257181190939</v>
       </c>
       <c r="J38" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K38" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L38" t="n">
-        <v>0.06622344155816395</v>
+        <v>0.04252704365526272</v>
       </c>
       <c r="M38" t="n">
-        <v>20.56267656088636</v>
+        <v>19.80347790553512</v>
       </c>
       <c r="N38" t="n">
-        <v>712.102416084421</v>
+        <v>627.5857748560067</v>
       </c>
       <c r="O38" t="n">
-        <v>26.68524716176376</v>
+        <v>25.05166211763217</v>
       </c>
       <c r="P38" t="n">
-        <v>331.3939070943237</v>
+        <v>329.1127182055797</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -27809,7 +28059,7 @@
         <v>-2.006443647366068</v>
       </c>
       <c r="J39" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K39" t="n">
         <v>95</v>
@@ -27865,7 +28115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN201"/>
+  <dimension ref="A1:AN203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61973,11 +62223,7 @@
       </c>
       <c r="AJ200" t="inlineStr"/>
       <c r="AK200" t="inlineStr"/>
-      <c r="AL200" t="inlineStr">
-        <is>
-          <t>-36.14140246889387,175.43013017732693</t>
-        </is>
-      </c>
+      <c r="AL200" t="inlineStr"/>
       <c r="AM200" t="inlineStr"/>
       <c r="AN200" t="inlineStr">
         <is>
@@ -62161,27 +62407,391 @@
           <t>-36.13933262976748,175.42910595923388</t>
         </is>
       </c>
-      <c r="AJ201" t="inlineStr">
-        <is>
-          <t>-36.14084667838235,175.42795115805717</t>
-        </is>
-      </c>
+      <c r="AJ201" t="inlineStr"/>
       <c r="AK201" t="inlineStr">
         <is>
           <t>-36.140986127628935,175.4292920357946</t>
         </is>
       </c>
-      <c r="AL201" t="inlineStr">
-        <is>
-          <t>-36.14137330122226,175.43018313260905</t>
-        </is>
-      </c>
+      <c r="AL201" t="inlineStr"/>
       <c r="AM201" t="inlineStr">
         <is>
           <t>-36.14169535789632,175.43119243764875</t>
         </is>
       </c>
       <c r="AN201" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-36.116887450229136,175.4246252914359</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-36.11756618181679,175.42430700694905</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>-36.118245775989365,175.42399136492824</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>-36.11896329176398,175.4236558977291</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-36.11972201605904,175.4233219762038</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-36.12046411304407,175.4230098794361</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>-36.121173396728494,175.4227825803215</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>-36.12189485926378,175.4226872651552</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>-36.122614141743156,175.42256840859264</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>-36.123371238554995,175.42285921544908</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>-36.12409603217734,175.42280020017083</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>-36.12487290067913,175.4229125402681</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>-36.12565563751772,175.42289078252904</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>-36.12639366317192,175.42304406814523</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>-36.12710542904428,175.4232208405932</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>-36.127808732396446,175.4234415667531</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>-36.12852704771237,175.4235842294703</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>-36.12922839767895,175.42381504269378</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>-36.12991795906793,175.4241070982885</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>-36.13061367513007,175.4243671294313</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>-36.13132045301829,175.42456962953577</t>
+        </is>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>-36.13200363196692,175.4248947603934</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>-36.13271190140393,175.4251782985669</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>-36.13343304306255,175.4254672942483</t>
+        </is>
+      </c>
+      <c r="AA202" t="inlineStr">
+        <is>
+          <t>-36.13405128046607,175.42594073739718</t>
+        </is>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>-36.134694420598414,175.4263581144363</t>
+        </is>
+      </c>
+      <c r="AC202" t="inlineStr">
+        <is>
+          <t>-36.135308123143005,175.42683805320883</t>
+        </is>
+      </c>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>-36.13604384431284,175.42705861732261</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>-36.13669296286439,175.42746325363888</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>-36.13737591911463,175.42781213555597</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>-36.13803545853889,175.4282442817886</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>-36.13870847704832,175.42864508515348</t>
+        </is>
+      </c>
+      <c r="AI202" t="inlineStr">
+        <is>
+          <t>-36.139298411750275,175.42916808283002</t>
+        </is>
+      </c>
+      <c r="AJ202" t="inlineStr">
+        <is>
+          <t>-36.13991700620959,175.42963903957568</t>
+        </is>
+      </c>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr">
+        <is>
+          <t>-36.14114706822761,175.43059386655176</t>
+        </is>
+      </c>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>-36.11616255048735,175.42480309941934</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>-36.11682115437756,175.4244235464109</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>-36.11749328987367,175.4240851885786</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>-36.118163803654525,175.42374191305257</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>-36.11890297519642,175.42342602427036</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>-36.1196696223525,175.4229597061556</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>-36.12046737648395,175.42304522686823</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>-36.12118680378084,175.42292779668253</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>-36.121899067749936,175.42273284882057</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>-36.12262861269053,175.42272515035285</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>-36.123359339460656,175.4227303268077</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>-36.12409979136052,175.4228409196537</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>-36.12487412270349,175.42267391576303</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>-36.12565393910627,175.42290225493127</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>-36.126397147172405,175.42302595885178</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>-36.12711245648756,175.42318431292122</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>-36.127857758325455,175.42318673532733</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>-36.12854537424925,175.42348897008816</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>-36.12924336767554,175.4237372302769</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>-36.12995937638706,175.42389181546895</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>-36.13064287641243,175.424215344704</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>-36.13133949869383,175.4244706324064</t>
+        </is>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>-36.132019787726826,175.4248107851013</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>-36.13272983035102,175.4251220078232</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>-36.13343530392014,175.42546243340536</t>
+        </is>
+      </c>
+      <c r="AA203" t="inlineStr">
+        <is>
+          <t>-36.13411763656391,175.42579969059796</t>
+        </is>
+      </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>-36.13475702914458,175.42622503329264</t>
+        </is>
+      </c>
+      <c r="AC203" t="inlineStr">
+        <is>
+          <t>-36.13541060279729,175.42662022161912</t>
+        </is>
+      </c>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>-36.13607433263814,175.42699381077875</t>
+        </is>
+      </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>-36.13671615319042,175.42741395978558</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>-36.13740054833572,175.42776125006907</t>
+        </is>
+      </c>
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>-36.1381226451059,175.4280778659131</t>
+        </is>
+      </c>
+      <c r="AH203" t="inlineStr">
+        <is>
+          <t>-36.13884312100764,175.42840063512273</t>
+        </is>
+      </c>
+      <c r="AI203" t="inlineStr"/>
+      <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0114/nzd0114.xlsx
+++ b/data/nzd0114/nzd0114.xlsx
@@ -25170,10 +25170,10 @@
         <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0409</v>
+        <v>0.0392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0537</v>
+        <v>0.0582</v>
       </c>
       <c r="I2" t="n">
         <v>0.3003900995631595</v>
@@ -25245,13 +25245,13 @@
         <v>0.02704448391202859</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0337</v>
+        <v>0.0409</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0433</v>
+        <v>0.0562</v>
       </c>
       <c r="I3" t="n">
         <v>0.4752507698716351</v>
@@ -25323,13 +25323,13 @@
         <v>0.05408896782445098</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0381</v>
+        <v>0.0413</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0483</v>
+        <v>0.0536</v>
       </c>
       <c r="I4" t="n">
         <v>0.4595733563195647</v>
@@ -25401,13 +25401,13 @@
         <v>0.08113345173687338</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0387</v>
+        <v>0.0452</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0484</v>
+        <v>0.0601</v>
       </c>
       <c r="I5" t="n">
         <v>0.3426106510781508</v>
@@ -25479,13 +25479,13 @@
         <v>0.108177935648902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0421</v>
+        <v>0.0425</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0551</v>
+        <v>0.0604</v>
       </c>
       <c r="I6" t="n">
         <v>0.1521174258324105</v>
@@ -25557,13 +25557,13 @@
         <v>0.1349739999972037</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0389</v>
+        <v>0.0318</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0542</v>
+        <v>0.0414</v>
       </c>
       <c r="I7" t="n">
         <v>0.3909017790648448</v>
@@ -25635,13 +25635,13 @@
         <v>0.1620184839092894</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0247</v>
+        <v>0.0381</v>
       </c>
       <c r="H8" t="n">
-        <v>0.033</v>
+        <v>0.0535</v>
       </c>
       <c r="I8" t="n">
         <v>0.3842998906016049</v>
@@ -25713,13 +25713,13 @@
         <v>0.1890629678216249</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0381</v>
+        <v>0.0443</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0456</v>
+        <v>0.0598</v>
       </c>
       <c r="I9" t="n">
         <v>0.1718510959296968</v>
@@ -25791,13 +25791,13 @@
         <v>0.2161074517340907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0481</v>
+        <v>0.0339</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0646</v>
+        <v>0.0436</v>
       </c>
       <c r="I10" t="n">
         <v>-0.09419445582410296</v>
@@ -25868,9 +25868,15 @@
       <c r="E11" t="n">
         <v>0.2431519356463067</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.057</v>
+      </c>
       <c r="I11" t="n">
         <v>0.002992734068235403</v>
       </c>
@@ -25941,13 +25947,13 @@
         <v>0.2701964195586422</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0373</v>
+        <v>0.0516</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0438</v>
+        <v>0.0868</v>
       </c>
       <c r="I12" t="n">
         <v>0.03592553406807198</v>
@@ -26019,13 +26025,13 @@
         <v>0.2972409034709778</v>
       </c>
       <c r="F13" t="n">
-        <v>0.025</v>
+        <v>0.045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0237</v>
+        <v>0.0394</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0273</v>
+        <v>0.0509</v>
       </c>
       <c r="I13" t="n">
         <v>0.29301490538784</v>
@@ -26097,13 +26103,13 @@
         <v>0.3242853873831938</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0337</v>
+        <v>0.0386</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0405</v>
+        <v>0.0503</v>
       </c>
       <c r="I14" t="n">
         <v>0.1082922376218695</v>
@@ -26178,10 +26184,10 @@
         <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0433</v>
+        <v>0.0445</v>
       </c>
       <c r="H15" t="n">
-        <v>0.057</v>
+        <v>0.0624</v>
       </c>
       <c r="I15" t="n">
         <v>0.07613122813939709</v>
@@ -26253,13 +26259,13 @@
         <v>0.3780304865938577</v>
       </c>
       <c r="F16" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0295</v>
+        <v>0.0442</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0364</v>
+        <v>0.0615</v>
       </c>
       <c r="I16" t="n">
         <v>0.08661896967035158</v>
@@ -26331,13 +26337,13 @@
         <v>0.40507497050608</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.038</v>
+        <v>0.0435</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0455</v>
+        <v>0.0573</v>
       </c>
       <c r="I17" t="n">
         <v>-0.115462975991857</v>
@@ -26409,13 +26415,13 @@
         <v>0.4321194544183025</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0405</v>
+        <v>0.0396</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0587</v>
+        <v>0.0537</v>
       </c>
       <c r="I18" t="n">
         <v>-0.06537466567674848</v>
@@ -26490,10 +26496,10 @@
         <v>0.045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0532</v>
+        <v>0.0545</v>
       </c>
       <c r="I19" t="n">
         <v>0.1891850945647778</v>
@@ -26565,13 +26571,13 @@
         <v>0.4862084222427472</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0338</v>
+        <v>0.0385</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0427</v>
+        <v>0.0533</v>
       </c>
       <c r="I20" t="n">
         <v>0.1504023651246861</v>
@@ -26646,10 +26652,10 @@
         <v>0.04</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0341</v>
+        <v>0.0354</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0432</v>
+        <v>0.0487</v>
       </c>
       <c r="I21" t="n">
         <v>0.05349192470388194</v>
@@ -26721,13 +26727,13 @@
         <v>0.5402973900676838</v>
       </c>
       <c r="F22" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0398</v>
+        <v>0.0352</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0511</v>
+        <v>0.0493</v>
       </c>
       <c r="I22" t="n">
         <v>-0.08296545564295939</v>
@@ -26799,13 +26805,13 @@
         <v>0.5673418739801522</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0433</v>
+        <v>0.0358</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0576</v>
+        <v>0.0539</v>
       </c>
       <c r="I23" t="n">
         <v>-0.349006398075245</v>
@@ -26877,13 +26883,13 @@
         <v>0.5943863578923746</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.043</v>
+        <v>0.0388</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0568</v>
+        <v>0.0592</v>
       </c>
       <c r="I24" t="n">
         <v>-0.2809107097584151</v>
@@ -26955,13 +26961,13 @@
         <v>0.621430841804597</v>
       </c>
       <c r="F25" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0412</v>
+        <v>0.0439</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0541</v>
+        <v>0.0698</v>
       </c>
       <c r="I25" t="n">
         <v>-0.161150108644659</v>
@@ -27033,13 +27039,13 @@
         <v>0.6484372232203938</v>
       </c>
       <c r="F26" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0419</v>
+        <v>0.0489</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0536</v>
+        <v>0.0737</v>
       </c>
       <c r="I26" t="n">
         <v>-0.243761984739717</v>
@@ -27111,13 +27117,13 @@
         <v>0.6754817071330738</v>
       </c>
       <c r="F27" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0457</v>
+        <v>0.05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0645</v>
+        <v>0.0769</v>
       </c>
       <c r="I27" t="n">
         <v>-0.4133208150770795</v>
@@ -27189,13 +27195,13 @@
         <v>0.7025261910457538</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0459</v>
+        <v>0.0444</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0603</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="I28" t="n">
         <v>-0.4705596351612389</v>
@@ -27267,13 +27273,13 @@
         <v>0.729570674957942</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0448</v>
+        <v>0.0526</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0567</v>
+        <v>0.0786</v>
       </c>
       <c r="I29" t="n">
         <v>-0.3765026374715043</v>
@@ -27345,13 +27351,13 @@
         <v>0.7566151588701302</v>
       </c>
       <c r="F30" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04</v>
+        <v>0.0544</v>
       </c>
       <c r="H30" t="n">
-        <v>0.048</v>
+        <v>0.0825</v>
       </c>
       <c r="I30" t="n">
         <v>-0.5451588323039304</v>
@@ -27423,13 +27429,13 @@
         <v>0.7836596427828102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0383</v>
+        <v>0.0477</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0474</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="I31" t="n">
         <v>-0.8280549768059747</v>
@@ -27501,13 +27507,13 @@
         <v>0.8107041266949984</v>
       </c>
       <c r="F32" t="n">
-        <v>0.045</v>
+        <v>0.08</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0391</v>
+        <v>0.0535</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0496</v>
+        <v>0.1625</v>
       </c>
       <c r="I32" t="n">
         <v>-0.675741408483626</v>
@@ -27579,13 +27585,13 @@
         <v>0.8377330965264596</v>
       </c>
       <c r="F33" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0431</v>
+        <v>0.0326</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0535</v>
+        <v>0.0556</v>
       </c>
       <c r="I33" t="n">
         <v>-0.7840003944030242</v>
@@ -27660,10 +27666,10 @@
         <v>0.04</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0351</v>
+        <v>0.0329</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0436</v>
+        <v>0.0582</v>
       </c>
       <c r="I34" t="n">
         <v>-1.390756305074088</v>
@@ -27735,13 +27741,13 @@
         <v>0.8918220643509993</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0341</v>
+        <v>0.0183</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0427</v>
+        <v>0.0295</v>
       </c>
       <c r="I35" t="n">
         <v>-2.557139479938261</v>
@@ -27813,13 +27819,13 @@
         <v>0.9188665482627821</v>
       </c>
       <c r="F36" t="n">
-        <v>0.035</v>
+        <v>0.02</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0335</v>
+        <v>0.0161</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0428</v>
+        <v>0.0326</v>
       </c>
       <c r="I36" t="n">
         <v>-1.993826934995678</v>
@@ -27891,13 +27897,13 @@
         <v>0.9459110321753285</v>
       </c>
       <c r="F37" t="n">
-        <v>0.055</v>
+        <v>0.015</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0444</v>
+        <v>0.0132</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0692</v>
+        <v>0.0211</v>
       </c>
       <c r="I37" t="n">
         <v>-3.616436927510768</v>
@@ -27969,13 +27975,13 @@
         <v>0.9729555160876642</v>
       </c>
       <c r="F38" t="n">
-        <v>0.045</v>
+        <v>0.015</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0373</v>
+        <v>0.0142</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0609</v>
+        <v>0.0218</v>
       </c>
       <c r="I38" t="n">
         <v>-0.7290036821575654</v>
@@ -28047,13 +28053,13 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0244</v>
+        <v>0.019</v>
       </c>
       <c r="H39" t="n">
-        <v>0.037</v>
+        <v>0.0271</v>
       </c>
       <c r="I39" t="n">
         <v>-2.006455646716627</v>
